--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{963C15B0-BBE1-4EC4-A173-6C4CB857F425}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738615D-7A5F-460B-9F2C-A38CDF037BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
@@ -21,6 +21,8 @@
     <sheet name="ChemistsListing" sheetId="9" r:id="rId6"/>
     <sheet name="SchoolsListing" sheetId="5" r:id="rId7"/>
     <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId8"/>
+    <sheet name="AutomobilesListing" sheetId="10" r:id="rId9"/>
+    <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="357">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -1049,6 +1051,60 @@
   </si>
   <si>
     <t>Jagat Pramukh Market</t>
+  </si>
+  <si>
+    <t>Ncr Wheels, Apna Garage</t>
+  </si>
+  <si>
+    <t>Village Iteda, Iteda Gol Chakkar, Near Gaur Saundaryam 130 mtr Road, Opp. Eco Village-II, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09999441148</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>09:30AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=9LPKXJ3sPKndz7sPluuBmA0&amp;q=ncrwheels+gretaer+noida&amp;oq=ncrwheels+gretaer+noida&amp;gs_l=psy-ab.3..33i21k1j33i160k1.9745.11690.0.11739.13.9.0.0.0.0.333.885.2-2j1.3.0....0...1c.1.64.psy-ab..10.3.885....0.rSpGw2fYmJ0#rlfi=hd:;si:;mv:!1m2!1d28.606900277319028!2d77.43943090264295!2m2!1d28.60654032268097!2d77.43902089735704</t>
+  </si>
+  <si>
+    <t>/img/automobiles/automobiles_NcrWheelsApnaGarage.jpeg</t>
+  </si>
+  <si>
+    <t>Bedsheets &amp; Bags</t>
+  </si>
+  <si>
+    <t>Y-4, 604, Eros Sampoornam, Sector 2, Plot No GH-01, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09560929494, 09910554248</t>
+  </si>
+  <si>
+    <t>10:00AM to 05:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=1sXKXKKQFMKH9QOV3oiYBQ&amp;q=eros+sampoornam+noida+extension&amp;oq=Eros.+Sampoornam&amp;gs_l=psy-ab.1.1.0i22i30k1l10.9859807.9859807.0.9861546.1.1.0.0.0.0.322.322.3-1.1.0....0...1c..64.psy-ab..0.1.322....0.sOA2aj3mwV4#rlfi=hd:;si:5673722420266658090;mv:!1m2!1d28.58985197731903!2d77.45860386939077!2m2!1d28.58949202268097!2d77.45819393060923</t>
+  </si>
+  <si>
+    <t>Eros Sampoornam</t>
+  </si>
+  <si>
+    <t>/img/shopping/shopping_BedsheetsBags.jpeg</t>
+  </si>
+  <si>
+    <t>SHOPPING</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>MOVIES</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1127,6 +1183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CACE2-D48A-4B7A-816A-2A1EDF39A2C2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,86 +1546,187 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F7B1AF-7472-40BE-942A-443ED2CD4998}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1577,7 +1735,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2041,9 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2723,9 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2988,9 +3142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D053C47-CCAB-4F6A-B908-C30E1288A5C4}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3107,9 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3316,9 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3410,4 +3558,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671CDC17-D331-4018-9460-7F7B401CEC28}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="164.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738615D-7A5F-460B-9F2C-A38CDF037BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289A5EF-A9E2-4752-BD6D-2D0011EDE6F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Category" sheetId="3" r:id="rId1"/>
-    <sheet name="CategoryThumbnail" sheetId="2" r:id="rId2"/>
-    <sheet name="RestaurantsListing" sheetId="1" r:id="rId3"/>
-    <sheet name="DoctorsListing" sheetId="7" r:id="rId4"/>
-    <sheet name="HospitalsListing" sheetId="4" r:id="rId5"/>
-    <sheet name="ChemistsListing" sheetId="9" r:id="rId6"/>
-    <sheet name="SchoolsListing" sheetId="5" r:id="rId7"/>
-    <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId8"/>
-    <sheet name="AutomobilesListing" sheetId="10" r:id="rId9"/>
-    <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
+    <sheet name="NewsList" sheetId="12" r:id="rId1"/>
+    <sheet name="Category" sheetId="3" r:id="rId2"/>
+    <sheet name="CategoryThumbnail" sheetId="2" r:id="rId3"/>
+    <sheet name="RestaurantsListing" sheetId="1" r:id="rId4"/>
+    <sheet name="DoctorsListing" sheetId="7" r:id="rId5"/>
+    <sheet name="HospitalsListing" sheetId="4" r:id="rId6"/>
+    <sheet name="ChemistsListing" sheetId="9" r:id="rId7"/>
+    <sheet name="SchoolsListing" sheetId="5" r:id="rId8"/>
+    <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId9"/>
+    <sheet name="AutomobilesListing" sheetId="10" r:id="rId10"/>
+    <sheet name="ShoppingListing" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="361">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -1105,6 +1106,18 @@
   </si>
   <si>
     <t>MOVIES</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>newsURL</t>
+  </si>
+  <si>
+    <t>Complaints by home buyers on rise, UP-RERA opens third bench in Noida</t>
+  </si>
+  <si>
+    <t>https://economictimes.indiatimes.com/wealth/personal-finance-news/complaints-by-home-buyers-on-rise-up-rera-opens-third-bench-in-noida/articleshow/69038470.cms</t>
   </si>
 </sst>
 </file>
@@ -1497,163 +1510,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CACE2-D48A-4B7A-816A-2A1EDF39A2C2}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD1AE64-8B0F-4628-88A7-5C972E1E7661}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>356</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
+        <v>359</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671CDC17-D331-4018-9460-7F7B401CEC28}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="164.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F7B1AF-7472-40BE-942A-443ED2CD4998}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1731,6 +1696,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CACE2-D48A-4B7A-816A-2A1EDF39A2C2}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0836F-3908-4833-B8F0-93FF494A7A6F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1846,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2195,7 +2317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -2875,7 +2997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3138,7 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D053C47-CCAB-4F6A-B908-C30E1288A5C4}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3255,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3462,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -3558,79 +3680,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671CDC17-D331-4018-9460-7F7B401CEC28}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="164.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60692A59-6D35-4CD5-8F4A-838C9AB9148A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62BE429-0C05-459E-A43B-BCE7CE272FA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="7" activeTab="11" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="PlaySchoolsListing" sheetId="8" r:id="rId8"/>
     <sheet name="AutomobilesListing" sheetId="10" r:id="rId9"/>
     <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
+    <sheet name="PharmacyListing" sheetId="15" r:id="rId11"/>
+    <sheet name="PathLabsListing" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="647">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -51,9 +53,6 @@
     <t>PLAY SCHOOLS</t>
   </si>
   <si>
-    <t>CHEMISTS</t>
-  </si>
-  <si>
     <t>PERSONAL CARE</t>
   </si>
   <si>
@@ -498,9 +497,6 @@
     <t>PlaySchools</t>
   </si>
   <si>
-    <t>Chemists</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/place/Gaur+Saundaryam/@28.6046605,77.4327089,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee50a5f0838f:0xcf3c86843f8c4cdf!8m2!3d28.6046558!4d77.4348976</t>
   </si>
   <si>
@@ -723,9 +719,6 @@
     <t>09319570527</t>
   </si>
   <si>
-    <t>Ncr Wheels, Apna Garage</t>
-  </si>
-  <si>
     <t>Village Iteda, Iteda Gol Chakkar, Near Gaur Saundaryam 130 mtr Road, Opp. Eco Village-II, Greater Noida West (Noida Extension)</t>
   </si>
   <si>
@@ -1056,6 +1049,726 @@
     <t>active</t>
   </si>
   <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>PHARMACY</t>
+  </si>
+  <si>
+    <t>MediConectar Pharmacy</t>
+  </si>
+  <si>
+    <t>CH 004, Stellar Jeevan, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204215290</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=chemists+near+me&amp;npsic=0&amp;rflfq=1&amp;rlha=0&amp;rllag=28568143,77448961,908&amp;tbm=lcl&amp;ved=2ahUKEwi4raCP84HiAhVP8XMBHWrdBlcQjGp6BAgKED8&amp;tbs=lrf:!2m1!1e2!2m1!1e3!2m1!1e16!3sIAE,lf:1,lf_ui:10&amp;rldoc=1#rlfi=hd:;si:2764648205378814475,l,ChBjaGVtaXN0cyBuZWFyIG1lIgOQAQE,y,XBRqd2bUY48;mv:!1m2!1d28.6196132!2d77.4586786!2m2!1d28.5323136!2d77.39545609999999</t>
+  </si>
+  <si>
+    <t>Jeevandhara Pharmacy</t>
+  </si>
+  <si>
+    <t>10:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>08:30AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>Apollo Pharmacy</t>
+  </si>
+  <si>
+    <t>Unnamed Road, Near Yarharth Hospital, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No 26/27, Ground Floor, Ace City, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09643070378</t>
+  </si>
+  <si>
+    <t>08826188843</t>
+  </si>
+  <si>
+    <t>07:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>Ace City</t>
+  </si>
+  <si>
+    <t>Shop No 5, Arihant Arden, Sector 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826188947</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:10349756106590348779,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:4418323368998451121,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13049693698735333918,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,leTn9T67qms;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Delhi Pharmacy</t>
+  </si>
+  <si>
+    <t>Shop No. 21 , Panchsheel Hynish , Sector -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>096432 87905</t>
+  </si>
+  <si>
+    <t>09:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14359274305205865275,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,ArqHtiY6Qpg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Panchsheel Hynish</t>
+  </si>
+  <si>
+    <t>Healthskool Pharmacy</t>
+  </si>
+  <si>
+    <t>GH-5B, Tech Zone-4, Cherry County Shopping Arcade, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08010330000</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:14869185767094825019,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,dZjUhUnIN64;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Cherry County</t>
+  </si>
+  <si>
+    <t>Apple Pharmacy</t>
+  </si>
+  <si>
+    <t>09873586019</t>
+  </si>
+  <si>
+    <t>08:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:3581348286001509698,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k,y,Gfur7AZXo_o;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No. 20, Plot No. 07B, Mayfair Residency, Techzone 04, Sector-04, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Mayfair Residency</t>
+  </si>
+  <si>
+    <t>09643292599</t>
+  </si>
+  <si>
+    <t>07:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:65055310229345402,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,MKu2Pi-slNU;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Icon Lesuire Valley</t>
+  </si>
+  <si>
+    <t>Shop No 28, La Residentia, GH 06, Techzone 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826033316</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:13995724106049859435,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>La Residentia</t>
+  </si>
+  <si>
+    <t>Shop No 16, Cherry County, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:12066837091246884421,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQFaCgoIcGhhcm1hY3k;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>08826922877</t>
+  </si>
+  <si>
+    <t>08826190059</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:586385303671793973,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,seJOHBo_Od8;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop No 8, Ace Aspire, Tech Zone 4, Sector 16B, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Ace Aspire</t>
+  </si>
+  <si>
+    <t>Greno Pharmacy</t>
+  </si>
+  <si>
+    <t>Upper Ground Shop 32, Icon Lesuire Valley, Tech Zone IV, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No. LG-15, Icon Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01207183948</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:579690272533299021,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,Anyzn_SpaLg;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Manya Pharmacy</t>
+  </si>
+  <si>
+    <t>07906366860</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?tbm=lcl&amp;ei=WM7OXL3NNdrhz7sPvcGFYA&amp;q=pharmacy+near+me&amp;oq=paharmacy+&amp;gs_l=psy-ab.1.0.0i67k1j0i10k1l9.3932.6657.0.7942.10.10.0.0.0.0.187.1166.0j7.7.0....0...1c.1.64.psy-ab..3.7.1162...0j0i131k1.0.7qu20C-dBCw#rlfi=hd:;si:8528886757645228722,l,ChBwaGFybWFjeSBuZWFyIG1lIgOQAQE,y,76DONwFsuwk;mv:!1m2!1d28.612749899999997!2d77.46299599999999!2m2!1d28.532702099999998!2d77.3955297</t>
+  </si>
+  <si>
+    <t>Shop.No.18,19,Opp.La Residency, MyFair Residency, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>MyFair Residency</t>
+  </si>
+  <si>
+    <t>Swasthyarekha Medicos</t>
+  </si>
+  <si>
+    <t>Shop number 45,City Plaza, Gaur City 1, GH-01, 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09999226845</t>
+  </si>
+  <si>
+    <t>08:30AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:4546087768302462445;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Way 2 Wellness</t>
+  </si>
+  <si>
+    <t>08800293080</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:16818375781778124752;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Block-A, 6th Ave Rd, Gaur City 1, Sector 4, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>1420, 10th Ave, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09:00AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11019748506156613034;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>City Chemist</t>
+  </si>
+  <si>
+    <t>Shop No.GF-35, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08265957909</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:6340808028203742228;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Medspree Pharmacy</t>
+  </si>
+  <si>
+    <t>GF, Shop No. 36-37, City Plaza, Gaur City-I, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08587097146</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:12583373738340564582;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Himgiri Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.K-4 , 1ST FLOOR, GALAXY PLAZA,GAUR CITY -1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07840071432</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:10977514920862728949;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Galaxy Pharmacy</t>
+  </si>
+  <si>
+    <t>SHOP.NO.7,GALAXY SHOPEE, GAUR CITY 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08130848228</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:5574040361941938758;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Dr Plus Pharmacy</t>
+  </si>
+  <si>
+    <t>Exotica Dreamville Arcade, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09667179482</t>
+  </si>
+  <si>
+    <t>Open 24 Hrs.</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:11692176277654813132;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Shop. No.G.18,City Galleria, Gaur City -2,Sec - 16C, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08826995604</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:13195625745323585788;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>SR Pharmacy</t>
+  </si>
+  <si>
+    <t>8A, GF, Galaxy Plaza, Gaur City-1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971803252</t>
+  </si>
+  <si>
+    <t>08:00AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:8564378462515421124;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>Family Homeopathic Pharmacy</t>
+  </si>
+  <si>
+    <t>FF 153, First Floor,Gaur City Plaza, Above ICICI Bank ATM, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08178500332</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?biw=1280&amp;bih=557&amp;tbm=lcl&amp;ei=DITRXNqsMoj1vgTKhKmwAQ&amp;q=chemists+in+gaur+city&amp;oq=chemists+in+gaur+city&amp;gs_l=psy-ab.3..0i22i30k1l3.15307.17466.0.17614.9.9.0.0.0.0.235.1012.0j1j4.5.0....0...1c.1.64.psy-ab..4.4.804....0.1lIQq1s_buM#rlfi=hd:;si:7816679870845769774;mv:!1m2!1d28.6229528!2d77.4518641!2m2!1d28.5578842!2d77.41873249999999</t>
+  </si>
+  <si>
+    <t>JD Pharmacy</t>
+  </si>
+  <si>
+    <t>Soul Pharmacy</t>
+  </si>
+  <si>
+    <t>09971898996</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/soul+pharmacy/@28.629409,77.4307163,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30ffffffe7:0x49ce98d0e191b7c2!8m2!3d28.629409!4d77.432905</t>
+  </si>
+  <si>
+    <t>S.G. Medicose</t>
+  </si>
+  <si>
+    <t>Shop No-18, Paramount Symphony, Ground Floor, Crossing Republik</t>
+  </si>
+  <si>
+    <t>Shop no-30,Well Bazar, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09540908908</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:30PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/S.G.+Medicose/@28.6287446,77.4383887,18z/data=!4m5!3m4!1s0x390cee3bb84ef78b:0xafd5bf4fafb7916!8m2!3d28.62874!4d77.439483</t>
+  </si>
+  <si>
+    <t>Manya Medical Hall</t>
+  </si>
+  <si>
+    <t>09971521003</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.628683,77.4383213,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b933fbe11:0x61dd4690d5d68906!8m2!3d28.6286783!4d77.44051</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Manya+Medical+Hall/@28.6150947,77.4350263,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee45ddff376b:0xeabd7343aa6f2b78!8m2!3d28.61509!4d77.437215</t>
+  </si>
+  <si>
+    <t>Shop No-Gf- Paramount, 17, Crossings Republik</t>
+  </si>
+  <si>
+    <t>Orbit, Paramount Market, Near KFC, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09971521004</t>
+  </si>
+  <si>
+    <t>Shop.No.6, Proview Laboni, Near Hari Mandir, Crossings Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SWASTHYA+PHARMACY/@28.6234397,77.4323633,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee37992eff49:0xab4449222d4d9bf1!8m2!3d28.623435!4d77.434552</t>
+  </si>
+  <si>
+    <t>Swasthya Pharmacy</t>
+  </si>
+  <si>
+    <t>Shri Ram Medical Store</t>
+  </si>
+  <si>
+    <t>Shop No-Ugf-1&amp;2, Crossing Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shri+Ram+Medical+Store/@28.6261997,77.4322853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3749a5552f:0x20dcf559f90f6240!8m2!3d28.626195!4d77.434474</t>
+  </si>
+  <si>
+    <t>Shivam Medical Store &amp; Poly Clinic</t>
+  </si>
+  <si>
+    <t>Shop No. 217, Second Floor, Panchsheel Sqaure, Crossing Republik</t>
+  </si>
+  <si>
+    <t>07011563138</t>
+  </si>
+  <si>
+    <t>09811845369</t>
+  </si>
+  <si>
+    <t>09582905131</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivam+Medical+Store+%26+Poly+Clinic/@28.6308497,77.4323853,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee306b0f2975:0x37dbd05d8ce818da!8m2!3d28.630845!4d77.434574</t>
+  </si>
+  <si>
+    <t>Shristi Medicos</t>
+  </si>
+  <si>
+    <t>Shop No. GF-26, Gallaria Market, Plot No. 6, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09654085328</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shristi+Medicos/@28.6257287,77.4326593,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30a8badd3f:0x85455e067c541fd6!8m2!3d28.625724!4d77.434848</t>
+  </si>
+  <si>
+    <t>My Chemists</t>
+  </si>
+  <si>
+    <t>Shop No. 8, Mahagun Mascot Mart, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08750603007</t>
+  </si>
+  <si>
+    <t>09:30AM to 10:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/My+Chemists/@28.6293267,77.4386903,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3b8fc74017:0x2cd3a0f82de27bdc!8m2!3d28.629322!4d77.440879</t>
+  </si>
+  <si>
+    <t>Jan Aushadhi Store</t>
+  </si>
+  <si>
+    <t>Shop. No. 141, 1st Floor, Panchsheel Square Mall, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09773694859</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Jan+Aushadhi+Store/@28.6310937,77.4323223,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee30151f9653:0xb36c94aa0d1e5f1!8m2!3d28.631089!4d77.434511</t>
+  </si>
+  <si>
+    <t>MedMe Pharmacy</t>
+  </si>
+  <si>
+    <t>UGF-28, Ajnara Arcade, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09718884488</t>
+  </si>
+  <si>
+    <t>06:00AM to 11:59PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MedMe+Pharmacy/@28.6295027,77.4332683,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee3080d09775:0xc7647f60b622f133!8m2!3d28.629498!4d77.435457</t>
+  </si>
+  <si>
+    <t>Mac Pharmacy</t>
+  </si>
+  <si>
+    <t>FF-34, Orbit Plaza, Crossing Republik</t>
+  </si>
+  <si>
+    <t>08447739709</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MAC+PHARMACY/@28.6308857,77.4329273,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee307289a5bb:0xa74c2b544ad68dcf!8m2!3d28.630881!4d77.435116</t>
+  </si>
+  <si>
+    <t>Shivay Medical Store</t>
+  </si>
+  <si>
+    <t>Panchsheel Square, shop no 110, first flor, Mall, Crossings Republik</t>
+  </si>
+  <si>
+    <t>07042153157</t>
+  </si>
+  <si>
+    <t>09:00AM to 11:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Shivay+Medical+Store/@28.6309558,77.4321091,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefa2026ab3a7:0xc983afb14bd1448e!8m2!3d28.6309511!4d77.4342978</t>
+  </si>
+  <si>
+    <t>http://sksworldschool.com/</t>
+  </si>
+  <si>
+    <t>http://www.stjohnsschools.org/home.aspx</t>
+  </si>
+  <si>
+    <t>http://www.bloominternationalschool.com/</t>
+  </si>
+  <si>
+    <t>http://www.gaursinternationalschool.com/</t>
+  </si>
+  <si>
+    <t>https://www.asterinstitutions.com/greater-noida/</t>
+  </si>
+  <si>
+    <t>http://dwpsnoidaex.com/</t>
+  </si>
+  <si>
+    <t>https://www.ryaninternational.org/site/risnoidaextn/</t>
+  </si>
+  <si>
+    <t>http://www.sarvottamnoida.com/</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics in Noida, Shop no 146, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09958552232</t>
+  </si>
+  <si>
+    <t>08:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/SRL+Diagnostics:+Pathology+Lab+%7C+Diagnostic+Center+For+Blood+Test/@28.5353045,77.3898243,17z/data=!3m1!4b1!4m5!3m4!1s0x390ce8ba85555525:0xe33f56b39af9eed6!8m2!3d28.5352998!4d77.392013</t>
+  </si>
+  <si>
+    <t>Home Collection, Panchsheel Hynish, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Pathlab+Noida+Home+Collection/@28.5797068,77.4350533,17z/data=!4m5!3m4!1s0x390ce8c6cc1a33eb:0x81a5f63cc5ffefe2!8m2!3d28.5796023!4d77.4370796</t>
+  </si>
+  <si>
+    <t>Techzone 4, Amrapali Leisure Valley, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09971064820</t>
+  </si>
+  <si>
+    <t>07:30AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+Path+Labs+Noida+Extension/@28.5865291,77.4356268,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefe853c36379:0x24f0693835fbabae!8m2!3d28.5865244!4d77.4378155</t>
+  </si>
+  <si>
+    <t>Amrapali Leisure Valley</t>
+  </si>
+  <si>
+    <t>Shop No.- 11, Galaxy Shoppe Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6195097,77.4236874,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef4591b82e7d:0x39de993fda55995d!8m2!3d28.619505!4d77.4258761</t>
+  </si>
+  <si>
+    <t>07065397983, 085859 51546</t>
+  </si>
+  <si>
+    <t>Shop No.- FF- 117, Gaur City, City Plaza Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07:00AM to 07:30PM</t>
+  </si>
+  <si>
+    <t>01203988505</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6168436,77.4181418,16z/data=!4m8!1m2!2m1!1sDr.+Lal+PathLabs+Shop+No.-+FF-+117,+Gaur+City,!3m4!1s0x390ce8babc160291:0x8b8feab84a3252fc!8m2!3d28.6148904!4d77.4277505</t>
+  </si>
+  <si>
+    <t>Max Lab (A unit of MAX Hospital)</t>
+  </si>
+  <si>
+    <t>FF8, First Floor, Galaxy Plaza, Gaur City 1, Sector 4, L block, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09417186080</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Max+Lab+(A+UNIT+of+MAX+HOSPITAL)+Pathology+Lab%2F+Blood+Tests+in+Gaur+City+(Noida+Extension)/@28.6119635,77.4203418,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef11ae6a6f8d:0x858dc63b30d0bbdf!8m2!3d28.6119588!4d77.4225305</t>
+  </si>
+  <si>
+    <t>08010776944</t>
+  </si>
+  <si>
+    <t>City Plaza, FF, Shop No 152, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>098994 43272</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.6151437,77.4255742,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef990cd4694f:0xd3317d85782ab8bf!8m2!3d28.615139!4d77.4277629</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/GET+WELL+PATH+LAB/@28.5609266,77.4509117,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefcd73e94417:0xbe1d86502f07fd8b!8m2!3d28.5609219!4d77.4531004</t>
+  </si>
+  <si>
+    <t>08:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>09350075758</t>
+  </si>
+  <si>
+    <t>FF 105, Tooth Angel Dental Clinic, Ace City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop. No. LGF-16, Galaxy Plaza, Gaur City1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07827985965</t>
+  </si>
+  <si>
+    <t>07:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>http://www.niramayahealthcare.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Nir+Amaya+Path+Labs+NABL+Accredited+Lab/@28.6117447,77.4202203,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb31bb57315:0x5c06bceb189e1b4a!8m2!3d28.61174!4d77.422409</t>
+  </si>
+  <si>
+    <t>09:30AM to 07:45PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/KRISHNA+DIAGNOSTICS,+NOIDA+Extn./@28.6195707,77.4242073,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4a96d3aa93:0x5b732594f1fdb078!8m2!3d28.619566!4d77.426396</t>
+  </si>
+  <si>
+    <t>Shop No. 01, 1st Floor, Galaxy Shoppe Complex,, Gaur City 2, opp. Mahagun Mywoods Mall, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>01204555585</t>
+  </si>
+  <si>
+    <t>09560154423</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.5703749,77.4442792,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef76ec235eaf:0xe4f24fd8fce43553!8m2!3d28.5703702!4d77.4464679</t>
+  </si>
+  <si>
+    <t>https://www.lalpathlabs.com</t>
+  </si>
+  <si>
+    <t>Paramount Emotions, Unit No- FF 15, City Square, Sector 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Shop No: FF-02, Paramount Spectrum Market, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09718507535</t>
+  </si>
+  <si>
+    <t>06:30AM to 09:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6120047,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3b9377e15d:0x52dfb0c579b9e6af!8m2!3d28.6287646!4d77.4403618</t>
+  </si>
+  <si>
+    <t>Crossing Relublik</t>
+  </si>
+  <si>
+    <t>Shop No G-36,PSC Panchsheel Square Near Axis Bank, Mall, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>08750139031</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.6309511,77.4167884,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee304005e309:0x368a73290e49c1f!8m2!3d28.6309511!4d77.4342979</t>
+  </si>
+  <si>
+    <t>LGF-008, Galleria -2, Crossing Republik</t>
+  </si>
+  <si>
+    <t>09971780677</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Niramaya+Pathlabs/@28.6121509,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee37485ddd1b:0x538c22321918fb14!8m2!3d28.626068!4d77.434494</t>
+  </si>
+  <si>
+    <t>Shop N0.-UGF-09 Upper Ground Floor, Galleria-II, Sain Vihar, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09643703006</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Dr+Lal+PathLabs/@28.612224,77.4050208,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cef9abf23eb7f:0x4c913a6bd4586207!8m2!3d28.6294093!4d77.4329048</t>
+  </si>
+  <si>
+    <t>Shop No. G-44 Panchsheel Square Mall, In Front Of Police Chowki, Crossings Republik</t>
+  </si>
+  <si>
+    <t>09818639390</t>
+  </si>
+  <si>
+    <t>Village Shahberi, Near Crossing Republik, Shahberi</t>
+  </si>
+  <si>
+    <t>09716787066</t>
+  </si>
+  <si>
+    <t>09:00AM to 08:00PM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Life+Care+Pathology+Lab/@28.6125164,77.4050207,14z/data=!4m8!1m2!2m1!1spath+labs+crossing!3m4!1s0x390cee3846d62a93:0xba0766a54e40a3a3!8m2!3d28.623049!4d77.437388</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>/img/thumbnail/pathlabsThumbnail.jpeg</t>
+  </si>
+  <si>
     <t>/img/thumbnail/restaurantsThumbnail.jpeg</t>
   </si>
   <si>
@@ -1065,18 +1778,18 @@
     <t>/img/thumbnail/hospitalsThumbnail.jpeg</t>
   </si>
   <si>
+    <t>/img/thumbnail/pharmacyThumbnail.jpeg</t>
+  </si>
+  <si>
+    <t>/img/thumbnail/schoolsThumbnail.jpeg</t>
+  </si>
+  <si>
     <t>/img/thumbnail/personalCareThumbnail.jpeg</t>
   </si>
   <si>
     <t>/img/thumbnail/automobilesThumbnail.jpeg</t>
   </si>
   <si>
-    <t>/img/thumbnail/schoolsThumbnail.jpeg</t>
-  </si>
-  <si>
-    <t>/img/thumbnail/pathlabsThumbnail.jpeg</t>
-  </si>
-  <si>
     <t>/img/thumbnail/taxiServicesThumbnail.jpeg</t>
   </si>
   <si>
@@ -1231,13 +1944,46 @@
   </si>
   <si>
     <t>/img/shopping/shopping_BedsheetsBags.jpeg</t>
+  </si>
+  <si>
+    <t>SRL Diagnostics Pathology Lab</t>
+  </si>
+  <si>
+    <t>Dr Lal Pathlab Noida Home Collection</t>
+  </si>
+  <si>
+    <t>Dr Lal Path Labs Noida Extension</t>
+  </si>
+  <si>
+    <t>Dr. Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Dr Lal PathLabs</t>
+  </si>
+  <si>
+    <t>Get Well Path Lab</t>
+  </si>
+  <si>
+    <t>Nir Amaya Path Labs NABL Accredited Lab</t>
+  </si>
+  <si>
+    <t>Krishna Diagnostics</t>
+  </si>
+  <si>
+    <t>Niramaya Pathlabs</t>
+  </si>
+  <si>
+    <t>Reliable Health care PathLab</t>
+  </si>
+  <si>
+    <t>Life Care Pathology Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,14 +1995,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1279,11 +2017,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1303,7 +2040,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1322,9 +2058,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1639,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1651,18 +2398,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1673,93 +2420,2182 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94A72-641F-4992-80D0-6BA5AD7CB7BC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>267</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B262F6-3615-4EEE-B3B0-4C0BE8A1198A}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" t="s">
+        <v>580</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" t="s">
+        <v>580</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" t="s">
+        <v>580</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" t="s">
+        <v>580</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" t="s">
+        <v>580</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" t="s">
+        <v>580</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I10" t="s">
+        <v>580</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" t="s">
+        <v>580</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" t="s">
+        <v>580</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" t="s">
+        <v>580</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I15" t="s">
+        <v>580</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I16" t="s">
+        <v>580</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I17" t="s">
+        <v>580</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E18" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I18" t="s">
+        <v>580</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I19" t="s">
+        <v>580</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I20" t="s">
+        <v>580</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I21" t="s">
+        <v>580</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I22" t="s">
+        <v>580</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I23" t="s">
+        <v>580</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I24" t="s">
+        <v>580</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E25" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I25" t="s">
+        <v>580</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I26" t="s">
+        <v>580</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I27" t="s">
+        <v>580</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I28" t="s">
+        <v>580</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>460</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I29" t="s">
+        <v>580</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E30" t="s">
+        <v>463</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I30" t="s">
+        <v>580</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I31" t="s">
+        <v>580</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E32" t="s">
+        <v>470</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I32" t="s">
+        <v>580</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I33" t="s">
+        <v>580</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" t="s">
+        <v>480</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I34" t="s">
+        <v>580</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I35" t="s">
+        <v>580</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" t="s">
+        <v>488</v>
+      </c>
+      <c r="E36" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I36" t="s">
+        <v>580</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I37" t="s">
+        <v>580</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>497</v>
+      </c>
+      <c r="E38" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I38" t="s">
+        <v>580</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7299E0-EDDE-4C29-B4A5-17E466E21EB2}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="E10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J10" t="s">
+        <v>546</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" t="s">
+        <v>549</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J11" t="s">
+        <v>548</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>554</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J12" t="s">
+        <v>552</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" t="s">
+        <v>555</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J13" t="s">
+        <v>558</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E14" t="s">
+        <v>560</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J14" t="s">
+        <v>562</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="E15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G15" t="s">
+        <v>545</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="E16" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>569</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" t="s">
+        <v>571</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="J18" t="s">
+        <v>574</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1768,7 +4604,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1781,13 +4617,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1795,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1806,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1817,153 +4653,153 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1973,10 +4809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F0836F-3908-4833-B8F0-93FF494A7A6F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,68 +4823,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>340</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>577</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>579</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>580</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>581</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2056,843 +4892,921 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>582</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>586</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://68.66.193.51:8080/nxdial-1/img/thumbnail/restaurantsThumbnail.jpeg" xr:uid="{A8BCDF68-50D4-46EC-9823-6F953C42698F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="131.08984375" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="131.08984375" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>336</v>
+      <c r="B2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="E8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="E10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="E14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="K19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+        <v>158</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>184</v>
+        <v>334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>182</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>235</v>
+      <c r="K23" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
-    <hyperlink ref="I12" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
-    <hyperlink ref="I13" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
-    <hyperlink ref="I14" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
-    <hyperlink ref="I15" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
-    <hyperlink ref="I16" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{C9023CF3-A380-4754-9B84-AF4FD72E91E5}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{39D2199B-BDDB-4C89-92A0-45B19DC4B1DC}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{A4AC7ACD-32FF-424A-8345-C91BDE3B324F}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{055031F8-9B43-43F7-870A-54FACAF94E22}"/>
+    <hyperlink ref="J13" r:id="rId5" display="https://www.google.com/maps/place/Shree+Rathnam+Restaurant/@28.6285229,77.4382134,17z/data=!4m12!1m6!3m5!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!2sShree+Rathnam+Restaurant!8m2!3d28.6285182!4d77.4404021!3m4!1s0x390cee3be88fd20b:0x7d44a8e0db4cad14!8m2!3d28.6285182!4d77.4404021" xr:uid="{E6E6A95C-DD91-4E2B-986F-67BA8152F639}"/>
+    <hyperlink ref="J14" r:id="rId6" xr:uid="{649DD76A-4D7F-4DFD-91A7-DDE9C7A1A05F}"/>
+    <hyperlink ref="J15" r:id="rId7" xr:uid="{F2B18F87-3E1C-4D8D-B3EC-16EFBA812900}"/>
+    <hyperlink ref="J16" r:id="rId8" xr:uid="{B5616DB2-2609-463D-A0C6-B37266951CBD}"/>
+    <hyperlink ref="J17" r:id="rId9" xr:uid="{0E653B5E-2E0B-462F-92D5-8F5D5314C53A}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{B70CCE4B-C39E-46E9-ADA1-11A682FF66E8}"/>
+    <hyperlink ref="J9" r:id="rId11" xr:uid="{F0642BD2-4ED7-4814-AAFF-7A23E1B836B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -2901,473 +5815,542 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6312478D-59AA-47FA-A2EB-CCE0DB7145BD}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>575</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>134</v>
+        <v>610</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>374</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>134</v>
+        <v>611</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
+      <c r="F4" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>134</v>
+        <v>612</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>134</v>
+        <v>613</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>134</v>
+        <v>614</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
+        <v>615</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
+      <c r="F8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>134</v>
+        <v>616</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>134</v>
+        <v>617</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
+      <c r="F12" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
+      <c r="F13" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>134</v>
+        <v>618</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>382</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>134</v>
+        <v>619</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3377,317 +6360,386 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B005557-25B7-4487-BE06-E764B2181BB1}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>383</v>
+        <v>509</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>98</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>384</v>
+        <v>508</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>385</v>
+        <v>507</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="5">
+        <v>92</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
         <v>8010109090</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>506</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>387</v>
+        <v>505</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>134</v>
+        <v>624</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>388</v>
+        <v>504</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>389</v>
+        <v>503</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>390</v>
+        <v>502</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>138</v>
-      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3696,722 +6748,791 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E0A812-8013-4DA9-80BD-D58FA7A436A2}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="10" max="10" width="75.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="11" max="11" width="75.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="K4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>304</v>
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>304</v>
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>334</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>341</v>
+        <v>190</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>341</v>
+      <c r="E11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>209</v>
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>341</v>
+        <v>207</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>341</v>
+        <v>209</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>341</v>
+        <v>211</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>215</v>
+        <v>334</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>341</v>
+        <v>213</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>341</v>
+        <v>217</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>223</v>
+        <v>578</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>341</v>
+        <v>238</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K20" t="s">
-        <v>303</v>
-      </c>
+      <c r="L20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4421,214 +7542,283 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DBBAB-95B6-43EE-9DCA-B017464EB0E9}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="J2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" t="s">
-        <v>277</v>
-      </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" t="s">
-        <v>239</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4638,16 +7828,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="27.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -4658,36 +7847,36 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>338</v>
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>234</v>
+      <c r="I1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4695,30 +7884,93 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62BE429-0C05-459E-A43B-BCE7CE272FA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60353E3-3FE8-48E9-9AF1-612491B74E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="7" activeTab="11" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="10" activeTab="12" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ShoppingListing" sheetId="11" r:id="rId10"/>
     <sheet name="PharmacyListing" sheetId="15" r:id="rId11"/>
     <sheet name="PathLabsListing" sheetId="16" r:id="rId12"/>
+    <sheet name="DailyNeedsListing" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="667">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -1977,6 +1978,66 @@
   </si>
   <si>
     <t>Life Care Pathology Lab</t>
+  </si>
+  <si>
+    <t>Family Store</t>
+  </si>
+  <si>
+    <t>LGF 41, City Plaza, Gaur City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09599975791, 09599975792, 07827439297</t>
+  </si>
+  <si>
+    <t>/img/dailyNeeds/dailyNeeds_FamilyStore.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Family+Store/@28.6146087,77.4255353,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b8783e553:0x652d6c4956ab52f6!8m2!3d28.614604!4d77.427724</t>
+  </si>
+  <si>
+    <t>City Plaza, Gaur City</t>
+  </si>
+  <si>
+    <t>Mini Mart</t>
+  </si>
+  <si>
+    <t>Shop no.23, City plaza, Gaur city 1, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>08800563608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.Minimart.com </t>
+  </si>
+  <si>
+    <t>08:00AM to 09:30PM</t>
+  </si>
+  <si>
+    <t>/img/dailyNeeds/dailyNeeds_MiniMart.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Mini+Mart/@28.6150307,77.4255613,17z/data=!3m1!4b1!4m5!3m4!1s0x390cee4b85c7e24d:0x984467dc816981a0!8m2!3d28.615026!4d77.42775</t>
+  </si>
+  <si>
+    <t>One Stop Mart</t>
+  </si>
+  <si>
+    <t>Shop Number 45-50, Lower Ground Floor, Galliria Market, Gaur City 2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>07290016382, 07290016383</t>
+  </si>
+  <si>
+    <t>24 Hrs</t>
+  </si>
+  <si>
+    <t>/img/dailyNeeds/dailyNeeds_OneStopMart.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/One+Stop+Mart/@28.619435,77.4210851,17z/data=!3m1!4b1!4m5!3m4!1s0x390cefb559f85485:0x6e99725b0e217cc2!8m2!3d28.6194303!4d77.4232738</t>
+  </si>
+  <si>
+    <t>Galliria Market, Gaur City</t>
   </si>
 </sst>
 </file>
@@ -3936,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7299E0-EDDE-4C29-B4A5-17E466E21EB2}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4592,6 +4653,199 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A70DA5-FDBE-4DF0-8E73-709D711D459B}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="K2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="J3" t="s">
+        <v>659</v>
+      </c>
+      <c r="K3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>663</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="J4" t="s">
+        <v>665</v>
+      </c>
+      <c r="K4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60353E3-3FE8-48E9-9AF1-612491B74E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC252A31-64C3-404A-9AE0-10A4947F9AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="10" activeTab="12" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="11" activeTab="14" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsList" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="PharmacyListing" sheetId="15" r:id="rId11"/>
     <sheet name="PathLabsListing" sheetId="16" r:id="rId12"/>
     <sheet name="DailyNeedsListing" sheetId="18" r:id="rId13"/>
+    <sheet name="TaxiServiceListing" sheetId="19" r:id="rId14"/>
+    <sheet name="PersonalCareListing" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="679">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -2038,6 +2040,42 @@
   </si>
   <si>
     <t>Galliria Market, Gaur City</t>
+  </si>
+  <si>
+    <t>Near Bisrakh Post Office</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Angel+Taxi+Service/@28.5688626,77.434872,17z/data=!3m1!4b1!4m5!3m4!1s0x390cef642b06726b:0x22dfb804d37870b0!8m2!3d28.5688579!4d77.4370607</t>
+  </si>
+  <si>
+    <t>24 Hours Service</t>
+  </si>
+  <si>
+    <t>09810305886, 07871732385, 09718502049</t>
+  </si>
+  <si>
+    <t>Bisrakh, Sector  1, Near SBI Bank and Shiv Mandir, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>Angel Taxi Service</t>
+  </si>
+  <si>
+    <t>/img/taxiService/taxiService_AngelTaxiService.jpeg</t>
+  </si>
+  <si>
+    <t>Radhe Radhe Taxi Service</t>
+  </si>
+  <si>
+    <t>J 806, ACE City, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09555771116, 09540871116, 06395120912</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ace+City+Noida+Extension/@28.5626897,77.4494361,17z/data=!3m1!4b1!4m5!3m4!1s0x390ceeb6ea3145c7:0x74fddcde6d2b2cd5!8m2!3d28.562685!4d77.4516248</t>
+  </si>
+  <si>
+    <t>/img/taxiService/taxiService_RadheRadheTaxiService.jpeg</t>
   </si>
 </sst>
 </file>
@@ -4664,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A70DA5-FDBE-4DF0-8E73-709D711D459B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4846,6 +4884,257 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F11" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D029DF-9A05-4EF6-AB79-2C68E51DFC50}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="K2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BB39E4-423B-4E5A-ACB0-15CB8F32F3D2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.6328125" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="K2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="J3" t="s">
+        <v>677</v>
+      </c>
+      <c r="K3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/nxData_local.xlsx
+++ b/src/main/resources/nxData_local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\project\workspace\shop\shop\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MunishData\mp\workspace\nx\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D837F52-7821-4ACC-B2A2-A2170C0DBDD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8DF33F-4088-496E-A808-74B9F78E2CB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4A692815-A8AB-4C25-93C4-DEA366F4764C}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="24" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5274" uniqueCount="2450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="2475">
   <si>
     <t>RESTAURANTS</t>
   </si>
@@ -6120,9 +6120,6 @@
     <t>09999030566</t>
   </si>
   <si>
-    <t>09891126984</t>
-  </si>
-  <si>
     <t>05:00AM to 06:00PM</t>
   </si>
   <si>
@@ -6333,6 +6330,66 @@
     <t>06:00AM to 12:00PM</t>
   </si>
   <si>
+    <t>www.thelittleengines.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/The+Little+Engines/@28.560408,77.4531144,15z/data=!4m5!3m4!1s0x0:0x600c4ac26c1bc0d4!8m2!3d28.560408!4d77.4531144</t>
+  </si>
+  <si>
+    <t>Nazar Optical (Hearning Aids, Contact Lenses, Designer Frames, Sunglasses, AIIMS Qualified</t>
+  </si>
+  <si>
+    <t>09871876026</t>
+  </si>
+  <si>
+    <t>Acharya Madhur Dev</t>
+  </si>
+  <si>
+    <t>07065260762</t>
+  </si>
+  <si>
+    <t>08354019657</t>
+  </si>
+  <si>
+    <t>Shree Madhukar Pooja Samgari Bhandar</t>
+  </si>
+  <si>
+    <t>99 Fahrenheit (Pizza, Pasta, Indian, Chinese, Tandoor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop No CH 111, First Floor, Stellar Jeevan, GH 03, Sector 1, Greater Noida West (Noida Extension) </t>
+  </si>
+  <si>
+    <t>08527752203</t>
+  </si>
+  <si>
+    <t>08882219732 , 01204548592 (Ext. No. 7111 for Local Residents)</t>
+  </si>
+  <si>
+    <t>Racia Agro Food Products Pvt. Ltd. (Atta Chakki - manufacturing wheat flour, chilli powder, turmeric powder, coriander powder &amp; mustard oil)</t>
+  </si>
+  <si>
+    <t>LGF-38, Gaur Galleria, Gaur City-2, Greater Noida West (Noida Extension)</t>
+  </si>
+  <si>
+    <t>09811420111</t>
+  </si>
+  <si>
+    <t>08447379559 , 01204110444</t>
+  </si>
+  <si>
+    <t>Gaur Galleria, Gaur City 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/search/gaur+galleria+near+Gaur+City+2,+Ghaziabad,+Uttar+Pradesh/@28.6176512,77.4208342,16z/data=!3m1!4b1</t>
+  </si>
+  <si>
+    <t>08700263181</t>
+  </si>
+  <si>
+    <t>08650100534</t>
+  </si>
+  <si>
     <t>/img/busRouteNmrc/busRouteNmrc_GaurCityToSector51.jpeg</t>
   </si>
   <si>
@@ -6609,6 +6666,9 @@
     <t>/img/otherCategory/opticians_ChauhanOptics&amp;EyeCare.jpeg</t>
   </si>
   <si>
+    <t>/img/otherCategory/opticians_NazarOptical.jpeg</t>
+  </si>
+  <si>
     <t>/img/otherCategory/sweetShops_UtsavSweets.jpeg</t>
   </si>
   <si>
@@ -6711,9 +6771,15 @@
     <t>/img/otherCategory/poojaItems_GauriShankarPoojaBhandar.jpeg</t>
   </si>
   <si>
+    <t>/img/otherCategory/poojaItems_ShreeMadhukarPoojaSamgariBhandar.jpeg</t>
+  </si>
+  <si>
     <t>/img/otherCategory/panditJi_PanditVivekanandUpadhyay.jpeg</t>
   </si>
   <si>
+    <t>/img/otherCategory/panditJi_AcharyaMadhurDev.jpeg</t>
+  </si>
+  <si>
     <t>/img/restaurant/restaurant_MAATIGenuinelyTasty.jpeg</t>
   </si>
   <si>
@@ -6873,6 +6939,9 @@
     <t>/img/restaurant/restaurant_KakeDaHotel.jpeg</t>
   </si>
   <si>
+    <t>/img/restaurant/restaurant_99Fahrenheit.jpeg</t>
+  </si>
+  <si>
     <t>/img/hospital/hospital_YatharthSuperSpecialityHospital .jpeg</t>
   </si>
   <si>
@@ -7161,6 +7230,9 @@
     <t>/img/playSchools/playSchools_PebblesPreSchool.jpg</t>
   </si>
   <si>
+    <t>/img/playSchools/playSchools_TheLittleEngines.jpg</t>
+  </si>
+  <si>
     <t>/img/playSchools/playSchools_Flora&amp;Fauna.jpg</t>
   </si>
   <si>
@@ -7411,6 +7483,9 @@
   </si>
   <si>
     <t>/img/dailyNeeds/dailyNeeds_ThePriceSmart.jpeg</t>
+  </si>
+  <si>
+    <t>/img/dailyNeeds/dailyNeeds_RaciaAgroFoodProductsPvtLtd.jpeg</t>
   </si>
   <si>
     <t>/img/taxiService/taxiService_AngelTaxiService.jpeg</t>
@@ -7989,7 +8064,7 @@
         <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1720</v>
@@ -8011,10 +8086,10 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -8022,7 +8097,7 @@
         <v>1784</v>
       </c>
       <c r="B5" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1653</v>
@@ -8033,10 +8108,10 @@
         <v>1168</v>
       </c>
       <c r="B6" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -8044,10 +8119,10 @@
         <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -8055,10 +8130,10 @@
         <v>606</v>
       </c>
       <c r="B8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C8" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -8066,7 +8141,7 @@
         <v>649</v>
       </c>
       <c r="B9" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C9" t="s">
         <v>1692</v>
@@ -8077,7 +8152,7 @@
         <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1946</v>
@@ -8088,10 +8163,10 @@
         <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C11" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -8107,13 +8182,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C13" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -8121,7 +8196,7 @@
         <v>640</v>
       </c>
       <c r="C14" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -8129,7 +8204,7 @@
         <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -8145,7 +8220,7 @@
         <v>298</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -8177,7 +8252,7 @@
         <v>573</v>
       </c>
       <c r="C21" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -8193,7 +8268,7 @@
         <v>1085</v>
       </c>
       <c r="C23" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -8201,7 +8276,7 @@
         <v>1918</v>
       </c>
       <c r="C24" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -8236,10 +8311,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736B90CF-4517-4B11-8606-27B03FD2621D}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="J37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="F38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8323,7 +8398,7 @@
         <v>121</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2067</v>
+        <v>2086</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>114</v>
@@ -8359,7 +8434,7 @@
         <v>121</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2188</v>
+        <v>2210</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>253</v>
@@ -8394,7 +8469,7 @@
         <v>209</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2189</v>
+        <v>2211</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>210</v>
@@ -8429,7 +8504,7 @@
         <v>244</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2190</v>
+        <v>2212</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>213</v>
@@ -8467,7 +8542,7 @@
         <v>620</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2191</v>
+        <v>2213</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>621</v>
@@ -8502,7 +8577,7 @@
         <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>2192</v>
+        <v>2214</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>678</v>
@@ -8540,7 +8615,7 @@
         <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2193</v>
+        <v>2215</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>681</v>
@@ -8578,7 +8653,7 @@
         <v>209</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>2194</v>
+        <v>2216</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>681</v>
@@ -8613,7 +8688,7 @@
         <v>245</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2195</v>
+        <v>2217</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>87</v>
@@ -8648,7 +8723,7 @@
         <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2196</v>
+        <v>2218</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>88</v>
@@ -8686,7 +8761,7 @@
         <v>246</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>2197</v>
+        <v>2219</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>89</v>
@@ -8724,7 +8799,7 @@
         <v>247</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>2198</v>
+        <v>2220</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>90</v>
@@ -8759,7 +8834,7 @@
         <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2199</v>
+        <v>2221</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>91</v>
@@ -8794,13 +8869,13 @@
         <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>2200</v>
+        <v>2222</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -8829,7 +8904,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>2201</v>
+        <v>2223</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>93</v>
@@ -8864,13 +8939,13 @@
         <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>2202</v>
+        <v>2224</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -8899,13 +8974,13 @@
         <v>244</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>2203</v>
+        <v>2225</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -8934,7 +9009,7 @@
         <v>121</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>2204</v>
+        <v>2226</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>96</v>
@@ -8969,13 +9044,13 @@
         <v>249</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>2205</v>
+        <v>2227</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -9004,13 +9079,13 @@
         <v>121</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>2206</v>
+        <v>2228</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -9039,7 +9114,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>2207</v>
+        <v>2229</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>99</v>
@@ -9074,7 +9149,7 @@
         <v>118</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>2208</v>
+        <v>2230</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>119</v>
@@ -9109,7 +9184,7 @@
         <v>121</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>2209</v>
+        <v>2231</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>122</v>
@@ -9144,7 +9219,7 @@
         <v>250</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>2210</v>
+        <v>2232</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>127</v>
@@ -9167,7 +9242,7 @@
         <v>128</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>142</v>
@@ -9179,7 +9254,7 @@
         <v>121</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>2211</v>
+        <v>2233</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>129</v>
@@ -9214,7 +9289,7 @@
         <v>136</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>2212</v>
+        <v>2234</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>138</v>
@@ -9249,7 +9324,7 @@
         <v>140</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2213</v>
+        <v>2235</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>141</v>
@@ -9287,7 +9362,7 @@
         <v>121</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2214</v>
+        <v>2236</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>787</v>
@@ -9325,7 +9400,7 @@
         <v>833</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2215</v>
+        <v>2237</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>114</v>
@@ -9363,7 +9438,7 @@
         <v>837</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2216</v>
+        <v>2238</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>114</v>
@@ -9398,7 +9473,7 @@
         <v>842</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2217</v>
+        <v>2239</v>
       </c>
       <c r="K32" t="s">
         <v>218</v>
@@ -9433,13 +9508,13 @@
         <v>247</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2218</v>
+        <v>2240</v>
       </c>
       <c r="K33" t="s">
         <v>1027</v>
       </c>
       <c r="L33" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -9471,7 +9546,7 @@
         <v>1113</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>2219</v>
+        <v>2241</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>1086</v>
@@ -9509,7 +9584,7 @@
         <v>121</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2220</v>
+        <v>2242</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>1086</v>
@@ -9544,7 +9619,7 @@
         <v>266</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>1167</v>
@@ -9582,7 +9657,7 @@
         <v>1194</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>2222</v>
+        <v>2244</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>1119</v>
@@ -9617,7 +9692,7 @@
         <v>209</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2223</v>
+        <v>2245</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>1119</v>
@@ -9655,7 +9730,7 @@
         <v>1201</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2224</v>
+        <v>2246</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>1119</v>
@@ -9693,7 +9768,7 @@
         <v>1208</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>2225</v>
+        <v>2247</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>1086</v>
@@ -9731,7 +9806,7 @@
         <v>1239</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2226</v>
+        <v>2248</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>1240</v>
@@ -9766,7 +9841,7 @@
         <v>121</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>2227</v>
+        <v>2249</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>1245</v>
@@ -9801,7 +9876,7 @@
         <v>245</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>2228</v>
+        <v>2250</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>1294</v>
@@ -9836,7 +9911,7 @@
         <v>245</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2229</v>
+        <v>2251</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>1294</v>
@@ -9874,7 +9949,7 @@
         <v>121</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2230</v>
+        <v>2252</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>1294</v>
@@ -9912,7 +9987,7 @@
         <v>121</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2231</v>
+        <v>2253</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>1294</v>
@@ -9950,7 +10025,7 @@
         <v>244</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>2232</v>
+        <v>2254</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>1294</v>
@@ -9985,7 +10060,7 @@
         <v>1427</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>2233</v>
+        <v>2255</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>1294</v>
@@ -10023,7 +10098,7 @@
         <v>1494</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2234</v>
+        <v>2256</v>
       </c>
       <c r="K49" t="s">
         <v>1475</v>
@@ -10061,7 +10136,7 @@
         <v>121</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2235</v>
+        <v>2257</v>
       </c>
       <c r="K50" t="s">
         <v>1475</v>
@@ -10099,7 +10174,7 @@
         <v>1564</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2236</v>
+        <v>2258</v>
       </c>
       <c r="K51" t="s">
         <v>1520</v>
@@ -10137,7 +10212,7 @@
         <v>1589</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2237</v>
+        <v>2259</v>
       </c>
       <c r="K52" t="s">
         <v>1520</v>
@@ -10175,7 +10250,7 @@
         <v>244</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>2238</v>
+        <v>2260</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>1652</v>
@@ -10213,7 +10288,7 @@
         <v>322</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>2239</v>
+        <v>2261</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>218</v>
@@ -10251,13 +10326,51 @@
         <v>1948</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2240</v>
+        <v>2262</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>1949</v>
       </c>
       <c r="L55" t="s">
-        <v>1995</v>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -10369,7 +10482,7 @@
         <v>756</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>2241</v>
+        <v>2264</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>757</v>
@@ -10405,7 +10518,7 @@
         <v>756</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>2242</v>
+        <v>2265</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>100</v>
@@ -10441,7 +10554,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>2243</v>
+        <v>2266</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>100</v>
@@ -10479,7 +10592,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>2244</v>
+        <v>2267</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>100</v>
@@ -10515,7 +10628,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>2245</v>
+        <v>2268</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>100</v>
@@ -10551,7 +10664,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>2246</v>
+        <v>2269</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>100</v>
@@ -10587,7 +10700,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>2247</v>
+        <v>2270</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>100</v>
@@ -10625,7 +10738,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>2248</v>
+        <v>2271</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>100</v>
@@ -10663,7 +10776,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>2069</v>
+        <v>2088</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>100</v>
@@ -10701,7 +10814,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>2069</v>
+        <v>2088</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>100</v>
@@ -10739,7 +10852,7 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>2249</v>
+        <v>2272</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>100</v>
@@ -10775,7 +10888,7 @@
         <v>24</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>2069</v>
+        <v>2088</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>100</v>
@@ -10811,7 +10924,7 @@
         <v>24</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>2250</v>
+        <v>2273</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>100</v>
@@ -10847,7 +10960,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>2251</v>
+        <v>2274</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>100</v>
@@ -10949,7 +11062,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>2252</v>
+        <v>2275</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>671</v>
@@ -10987,7 +11100,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2253</v>
+        <v>2276</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>670</v>
@@ -11025,7 +11138,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2254</v>
+        <v>2277</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>669</v>
@@ -11061,7 +11174,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2255</v>
+        <v>2278</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>668</v>
@@ -11096,7 +11209,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2256</v>
+        <v>2279</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>667</v>
@@ -11134,7 +11247,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>2257</v>
+        <v>2280</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>666</v>
@@ -11169,7 +11282,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2258</v>
+        <v>2281</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>665</v>
@@ -11204,7 +11317,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>2259</v>
+        <v>2282</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>664</v>
@@ -11239,7 +11352,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2260</v>
+        <v>2283</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>103</v>
@@ -11277,7 +11390,7 @@
         <v>674</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2261</v>
+        <v>2284</v>
       </c>
       <c r="K11" t="s">
         <v>651</v>
@@ -11296,7 +11409,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11381,7 +11494,7 @@
         <v>1077</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>2262</v>
+        <v>2285</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>523</v>
@@ -11419,7 +11532,7 @@
         <v>1051</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2263</v>
+        <v>2286</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>174</v>
@@ -11460,7 +11573,7 @@
         <v>748</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>2264</v>
+        <v>2287</v>
       </c>
       <c r="K4" t="s">
         <v>678</v>
@@ -11498,7 +11611,7 @@
         <v>1047</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2265</v>
+        <v>2288</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>648</v>
@@ -11539,7 +11652,7 @@
         <v>189</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2266</v>
+        <v>2289</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>109</v>
@@ -11580,7 +11693,7 @@
         <v>1052</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>2267</v>
+        <v>2290</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>218</v>
@@ -11621,7 +11734,7 @@
         <v>1053</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>221</v>
@@ -11662,7 +11775,7 @@
         <v>558</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>2268</v>
+        <v>2291</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>537</v>
@@ -11700,7 +11813,7 @@
         <v>1054</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>230</v>
@@ -11738,7 +11851,7 @@
         <v>229</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>231</v>
@@ -11776,7 +11889,7 @@
         <v>1072</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>2269</v>
+        <v>2292</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>232</v>
@@ -11814,7 +11927,7 @@
         <v>1055</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>533</v>
@@ -11852,7 +11965,7 @@
         <v>1071</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>600</v>
@@ -11890,7 +12003,7 @@
         <v>761</v>
       </c>
       <c r="J15" t="s">
-        <v>2270</v>
+        <v>2293</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>116</v>
@@ -11928,7 +12041,7 @@
         <v>1056</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>2271</v>
+        <v>2294</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>534</v>
@@ -11937,7 +12050,7 @@
         <v>156</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11966,7 +12079,7 @@
         <v>1057</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>2272</v>
+        <v>2295</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>173</v>
@@ -11975,7 +12088,7 @@
         <v>158</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -12004,7 +12117,7 @@
         <v>1058</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>2273</v>
+        <v>2296</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>173</v>
@@ -12013,7 +12126,7 @@
         <v>160</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -12042,7 +12155,7 @@
         <v>1059</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>2274</v>
+        <v>2297</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>173</v>
@@ -12051,7 +12164,7 @@
         <v>162</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -12080,7 +12193,7 @@
         <v>1060</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>2275</v>
+        <v>2298</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>173</v>
@@ -12089,7 +12202,7 @@
         <v>164</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -12118,7 +12231,7 @@
         <v>1054</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>2276</v>
+        <v>2299</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>173</v>
@@ -12127,7 +12240,7 @@
         <v>166</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -12156,7 +12269,7 @@
         <v>1068</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>2277</v>
+        <v>2300</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>173</v>
@@ -12165,7 +12278,7 @@
         <v>168</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -12194,7 +12307,7 @@
         <v>1069</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>2278</v>
+        <v>2301</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>173</v>
@@ -12203,7 +12316,7 @@
         <v>170</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -12232,7 +12345,7 @@
         <v>188</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>2279</v>
+        <v>2302</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>173</v>
@@ -12241,7 +12354,7 @@
         <v>172</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -12273,7 +12386,7 @@
         <v>1070</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>190</v>
@@ -12282,7 +12395,7 @@
         <v>193</v>
       </c>
       <c r="M25" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -12314,7 +12427,7 @@
         <v>1064</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>191</v>
@@ -12323,7 +12436,7 @@
         <v>194</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -12352,7 +12465,7 @@
         <v>278</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K27" t="s">
         <v>486</v>
@@ -12393,7 +12506,7 @@
         <v>1249</v>
       </c>
       <c r="J28" t="s">
-        <v>2280</v>
+        <v>2303</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>493</v>
@@ -12431,7 +12544,7 @@
         <v>1061</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>497</v>
@@ -12440,7 +12553,7 @@
         <v>498</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -12469,7 +12582,7 @@
         <v>1067</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>501</v>
@@ -12507,7 +12620,7 @@
         <v>1062</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>506</v>
@@ -12516,7 +12629,7 @@
         <v>505</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -12545,7 +12658,7 @@
         <v>1048</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>506</v>
@@ -12554,7 +12667,7 @@
         <v>1264</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -12586,7 +12699,7 @@
         <v>1821</v>
       </c>
       <c r="J33" t="s">
-        <v>2281</v>
+        <v>2304</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>511</v>
@@ -12624,7 +12737,7 @@
         <v>1049</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>497</v>
@@ -12633,7 +12746,7 @@
         <v>514</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -12662,7 +12775,7 @@
         <v>1065</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K35" t="s">
         <v>520</v>
@@ -12700,7 +12813,7 @@
         <v>1066</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K36" t="s">
         <v>527</v>
@@ -12726,7 +12839,7 @@
         <v>528</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>530</v>
@@ -12738,7 +12851,7 @@
         <v>1050</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="K37" t="s">
         <v>531</v>
@@ -12747,7 +12860,7 @@
         <v>529</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -12779,7 +12892,7 @@
         <v>702</v>
       </c>
       <c r="J38" t="s">
-        <v>2282</v>
+        <v>2305</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>681</v>
@@ -12820,7 +12933,7 @@
         <v>702</v>
       </c>
       <c r="J39" t="s">
-        <v>2282</v>
+        <v>2305</v>
       </c>
       <c r="K39" t="s">
         <v>694</v>
@@ -12861,7 +12974,7 @@
         <v>1063</v>
       </c>
       <c r="J40" t="s">
-        <v>2283</v>
+        <v>2306</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>681</v>
@@ -12902,7 +13015,7 @@
         <v>1063</v>
       </c>
       <c r="J41" t="s">
-        <v>2284</v>
+        <v>2307</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>681</v>
@@ -12943,7 +13056,7 @@
         <v>770</v>
       </c>
       <c r="J42" t="s">
-        <v>2285</v>
+        <v>2308</v>
       </c>
       <c r="K42" t="s">
         <v>232</v>
@@ -12984,7 +13097,7 @@
         <v>1046</v>
       </c>
       <c r="J43" t="s">
-        <v>2286</v>
+        <v>2309</v>
       </c>
       <c r="K43" t="s">
         <v>856</v>
@@ -12993,7 +13106,7 @@
         <v>998</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -13022,7 +13135,7 @@
         <v>1045</v>
       </c>
       <c r="J44" t="s">
-        <v>2287</v>
+        <v>2310</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>1073</v>
@@ -13063,7 +13176,7 @@
         <v>1249</v>
       </c>
       <c r="J45" t="s">
-        <v>2288</v>
+        <v>2311</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>493</v>
@@ -13104,7 +13217,7 @@
         <v>1360</v>
       </c>
       <c r="J46" t="s">
-        <v>2289</v>
+        <v>2312</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>493</v>
@@ -13145,7 +13258,7 @@
         <v>1262</v>
       </c>
       <c r="J47" t="s">
-        <v>2290</v>
+        <v>2313</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>493</v>
@@ -13183,7 +13296,7 @@
         <v>1267</v>
       </c>
       <c r="J48" t="s">
-        <v>2291</v>
+        <v>2314</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>1271</v>
@@ -13221,7 +13334,7 @@
         <v>1308</v>
       </c>
       <c r="J49" t="s">
-        <v>2292</v>
+        <v>2315</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>1294</v>
@@ -13259,7 +13372,7 @@
         <v>1319</v>
       </c>
       <c r="J50" t="s">
-        <v>2293</v>
+        <v>2316</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>1294</v>
@@ -13297,7 +13410,7 @@
         <v>1323</v>
       </c>
       <c r="J51" t="s">
-        <v>2294</v>
+        <v>2317</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>1294</v>
@@ -13335,7 +13448,7 @@
         <v>1345</v>
       </c>
       <c r="J52" t="s">
-        <v>2295</v>
+        <v>2318</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>1294</v>
@@ -13373,7 +13486,7 @@
         <v>1358</v>
       </c>
       <c r="J53" t="s">
-        <v>2296</v>
+        <v>2319</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>1294</v>
@@ -13411,7 +13524,7 @@
         <v>1359</v>
       </c>
       <c r="J54" t="s">
-        <v>2297</v>
+        <v>2320</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>1294</v>
@@ -13449,7 +13562,7 @@
         <v>1361</v>
       </c>
       <c r="J55" t="s">
-        <v>2298</v>
+        <v>2321</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>1294</v>
@@ -13487,7 +13600,7 @@
         <v>1431</v>
       </c>
       <c r="J56" t="s">
-        <v>2299</v>
+        <v>2322</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>1294</v>
@@ -13525,7 +13638,7 @@
         <v>1431</v>
       </c>
       <c r="J57" t="s">
-        <v>2300</v>
+        <v>2323</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>1294</v>
@@ -13563,7 +13676,7 @@
         <v>1448</v>
       </c>
       <c r="J58" t="s">
-        <v>2301</v>
+        <v>2324</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>1294</v>
@@ -13601,7 +13714,7 @@
         <v>1448</v>
       </c>
       <c r="J59" t="s">
-        <v>2302</v>
+        <v>2325</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>1294</v>
@@ -13642,7 +13755,7 @@
         <v>1460</v>
       </c>
       <c r="J60" t="s">
-        <v>2303</v>
+        <v>2326</v>
       </c>
       <c r="K60" t="s">
         <v>1459</v>
@@ -13683,7 +13796,7 @@
         <v>1460</v>
       </c>
       <c r="J61" t="s">
-        <v>2304</v>
+        <v>2327</v>
       </c>
       <c r="K61" t="s">
         <v>1459</v>
@@ -13724,7 +13837,7 @@
         <v>1460</v>
       </c>
       <c r="J62" t="s">
-        <v>2305</v>
+        <v>2328</v>
       </c>
       <c r="K62" t="s">
         <v>1459</v>
@@ -13762,7 +13875,7 @@
         <v>1480</v>
       </c>
       <c r="J63" t="s">
-        <v>2306</v>
+        <v>2329</v>
       </c>
       <c r="K63" t="s">
         <v>1475</v>
@@ -13803,7 +13916,7 @@
         <v>1524</v>
       </c>
       <c r="J64" t="s">
-        <v>2307</v>
+        <v>2330</v>
       </c>
       <c r="K64" t="s">
         <v>1520</v>
@@ -13841,7 +13954,7 @@
         <v>1524</v>
       </c>
       <c r="J65" t="s">
-        <v>2308</v>
+        <v>2331</v>
       </c>
       <c r="K65" t="s">
         <v>1520</v>
@@ -13882,7 +13995,7 @@
         <v>1553</v>
       </c>
       <c r="J66" t="s">
-        <v>2309</v>
+        <v>2332</v>
       </c>
       <c r="K66" t="s">
         <v>1520</v>
@@ -13920,7 +14033,7 @@
         <v>1570</v>
       </c>
       <c r="J67" t="s">
-        <v>2310</v>
+        <v>2333</v>
       </c>
       <c r="K67" t="s">
         <v>231</v>
@@ -13958,7 +14071,7 @@
         <v>1570</v>
       </c>
       <c r="J68" t="s">
-        <v>2311</v>
+        <v>2334</v>
       </c>
       <c r="K68" t="s">
         <v>1575</v>
@@ -13996,7 +14109,7 @@
         <v>1657</v>
       </c>
       <c r="J69" t="s">
-        <v>2312</v>
+        <v>2335</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>1652</v>
@@ -14034,7 +14147,7 @@
         <v>1308</v>
       </c>
       <c r="J70" t="s">
-        <v>2313</v>
+        <v>2336</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>1652</v>
@@ -14072,7 +14185,7 @@
         <v>1672</v>
       </c>
       <c r="J71" t="s">
-        <v>2314</v>
+        <v>2337</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>1652</v>
@@ -14110,7 +14223,7 @@
         <v>1667</v>
       </c>
       <c r="J72" t="s">
-        <v>2315</v>
+        <v>2338</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>1652</v>
@@ -14148,7 +14261,7 @@
         <v>1673</v>
       </c>
       <c r="J73" t="s">
-        <v>2316</v>
+        <v>2339</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>1652</v>
@@ -14186,7 +14299,7 @@
         <v>1677</v>
       </c>
       <c r="J74" t="s">
-        <v>2317</v>
+        <v>2340</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>1652</v>
@@ -14224,7 +14337,7 @@
         <v>1754</v>
       </c>
       <c r="J75" t="s">
-        <v>2318</v>
+        <v>2341</v>
       </c>
       <c r="K75" t="s">
         <v>218</v>
@@ -14265,7 +14378,7 @@
         <v>1805</v>
       </c>
       <c r="J76" t="s">
-        <v>2319</v>
+        <v>2342</v>
       </c>
       <c r="K76" t="s">
         <v>114</v>
@@ -14306,7 +14419,7 @@
         <v>1821</v>
       </c>
       <c r="J77" t="s">
-        <v>2320</v>
+        <v>2343</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>511</v>
@@ -14347,7 +14460,7 @@
         <v>1845</v>
       </c>
       <c r="J78" t="s">
-        <v>2321</v>
+        <v>2344</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>218</v>
@@ -14388,7 +14501,7 @@
         <v>1845</v>
       </c>
       <c r="J79" t="s">
-        <v>2322</v>
+        <v>2345</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>218</v>
@@ -14426,7 +14539,7 @@
         <v>1908</v>
       </c>
       <c r="J80" t="s">
-        <v>2323</v>
+        <v>2346</v>
       </c>
       <c r="K80" t="s">
         <v>1909</v>
@@ -14464,7 +14577,7 @@
         <v>1912</v>
       </c>
       <c r="J81" t="s">
-        <v>2324</v>
+        <v>2347</v>
       </c>
       <c r="K81" t="s">
         <v>1909</v>
@@ -14502,7 +14615,7 @@
         <v>1936</v>
       </c>
       <c r="J82" t="s">
-        <v>2325</v>
+        <v>2348</v>
       </c>
       <c r="K82" t="s">
         <v>114</v>
@@ -14525,28 +14638,28 @@
         <v>11</v>
       </c>
       <c r="D83" s="16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>2024</v>
       </c>
-      <c r="E83" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="H83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>2025</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>2026</v>
-      </c>
       <c r="J83" t="s">
-        <v>2326</v>
+        <v>2349</v>
       </c>
       <c r="K83" t="s">
         <v>114</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>184</v>
@@ -14563,31 +14676,31 @@
         <v>11</v>
       </c>
       <c r="D84" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>2029</v>
       </c>
-      <c r="E84" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="H84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" t="s">
+        <v>2350</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>2031</v>
       </c>
-      <c r="J84" t="s">
-        <v>2327</v>
-      </c>
-      <c r="K84" t="s">
-        <v>2034</v>
-      </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" t="s">
         <v>2032</v>
-      </c>
-      <c r="M84" t="s">
-        <v>2033</v>
       </c>
     </row>
   </sheetData>
@@ -14602,7 +14715,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14686,7 +14799,7 @@
         <v>1856</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>2328</v>
+        <v>2351</v>
       </c>
       <c r="K2" t="s">
         <v>586</v>
@@ -14722,7 +14835,7 @@
         <v>575</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>2329</v>
+        <v>2352</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>576</v>
@@ -14758,13 +14871,13 @@
         <v>24</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>2330</v>
+        <v>2353</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -14796,13 +14909,13 @@
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2331</v>
+        <v>2354</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -14834,7 +14947,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>2331</v>
+        <v>2354</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>116</v>
@@ -14872,7 +14985,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>2332</v>
+        <v>2355</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>114</v>
@@ -14910,7 +15023,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>2332</v>
+        <v>2355</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>116</v>
@@ -14945,7 +15058,7 @@
         <v>575</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>2333</v>
+        <v>2356</v>
       </c>
       <c r="K9" t="s">
         <v>582</v>
@@ -14983,7 +15096,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>2334</v>
+        <v>2357</v>
       </c>
       <c r="K10" t="s">
         <v>1041</v>
@@ -15021,7 +15134,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>2335</v>
+        <v>2358</v>
       </c>
       <c r="K11" t="s">
         <v>1041</v>
@@ -15059,7 +15172,7 @@
         <v>1641</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>2336</v>
+        <v>2359</v>
       </c>
       <c r="K12" t="s">
         <v>1639</v>
@@ -15073,7 +15186,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>1150</v>
@@ -15088,16 +15201,16 @@
         <v>1854</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>24</v>
+        <v>2060</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>2336</v>
+        <v>2360</v>
       </c>
       <c r="K13" t="s">
-        <v>1909</v>
+        <v>2061</v>
       </c>
       <c r="L13" t="s">
         <v>272</v>
@@ -15132,7 +15245,7 @@
         <v>1917</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>2337</v>
+        <v>2361</v>
       </c>
       <c r="K14" t="s">
         <v>1919</v>
@@ -15170,13 +15283,13 @@
         <v>24</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>2338</v>
+        <v>2362</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>1942</v>
       </c>
       <c r="L15" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -15205,7 +15318,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>2339</v>
+        <v>2363</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>1954</v>
@@ -15243,13 +15356,13 @@
         <v>24</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>2340</v>
+        <v>2364</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>1961</v>
       </c>
       <c r="L17" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -15281,7 +15394,7 @@
         <v>1979</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>2341</v>
+        <v>2365</v>
       </c>
       <c r="K18" t="s">
         <v>1981</v>
@@ -15301,28 +15414,28 @@
         <v>1150</v>
       </c>
       <c r="D19" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E19" t="s">
         <v>2039</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="12" t="s">
         <v>2040</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>2041</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K19" t="s">
         <v>2042</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>2342</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>2043</v>
-      </c>
-      <c r="L19" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -15336,31 +15449,31 @@
         <v>1150</v>
       </c>
       <c r="D20" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E20" t="s">
         <v>2045</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="12" t="s">
         <v>2046</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>2047</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>2048</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>2049</v>
-      </c>
       <c r="J20" s="13" t="s">
-        <v>2343</v>
+        <v>2367</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>1961</v>
       </c>
       <c r="L20" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
   </sheetData>
@@ -15373,8 +15486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148CF0CC-1380-4358-9D85-83EE3B667E76}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15457,7 +15570,7 @@
         <v>178</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>2344</v>
+        <v>2368</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>179</v>
@@ -15495,7 +15608,7 @@
         <v>178</v>
       </c>
       <c r="J3" t="s">
-        <v>2077</v>
+        <v>2096</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>629</v>
@@ -15533,7 +15646,7 @@
         <v>826</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>2345</v>
+        <v>2369</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>114</v>
@@ -15568,7 +15681,7 @@
         <v>440</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>2346</v>
+        <v>2370</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>114</v>
@@ -15606,7 +15719,7 @@
         <v>440</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>2347</v>
+        <v>2371</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>114</v>
@@ -15644,7 +15757,7 @@
         <v>832</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2348</v>
+        <v>2372</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>114</v>
@@ -15682,7 +15795,7 @@
         <v>178</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2349</v>
+        <v>2373</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>1875</v>
@@ -15705,28 +15818,28 @@
         <v>1988</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>2374</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>1990</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>2350</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1993</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -15734,22 +15847,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>2036</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2037</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>1989</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
@@ -15758,13 +15871,13 @@
         <v>832</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2351</v>
+        <v>2375</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -15805,7 +15918,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15888,7 +16001,7 @@
         <v>612</v>
       </c>
       <c r="J2" t="s">
-        <v>2079</v>
+        <v>2098</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>114</v>
@@ -15923,7 +16036,7 @@
         <v>563</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>2352</v>
+        <v>2376</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>571</v>
@@ -15946,7 +16059,7 @@
         <v>561</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>562</v>
@@ -15959,7 +16072,7 @@
         <v>563</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>2353</v>
+        <v>2377</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>114</v>
@@ -15997,7 +16110,7 @@
         <v>197</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>2354</v>
+        <v>2378</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>196</v>
@@ -16035,13 +16148,13 @@
         <v>781</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>2355</v>
+        <v>2379</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>782</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -16070,7 +16183,7 @@
         <v>1225</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2356</v>
+        <v>2380</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>1219</v>
@@ -16105,7 +16218,7 @@
         <v>1228</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2357</v>
+        <v>2381</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>1227</v>
@@ -16140,7 +16253,7 @@
         <v>1289</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2358</v>
+        <v>2382</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>1219</v>
@@ -16176,13 +16289,13 @@
         <v>612</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2359</v>
+        <v>2383</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>1422</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -16214,7 +16327,7 @@
         <v>1594</v>
       </c>
       <c r="J11" t="s">
-        <v>2360</v>
+        <v>2384</v>
       </c>
       <c r="K11" t="s">
         <v>1520</v>
@@ -16252,7 +16365,7 @@
         <v>1600</v>
       </c>
       <c r="J12" t="s">
-        <v>2361</v>
+        <v>2385</v>
       </c>
       <c r="K12" t="s">
         <v>1520</v>
@@ -16287,7 +16400,7 @@
         <v>1600</v>
       </c>
       <c r="J13" t="s">
-        <v>2362</v>
+        <v>2386</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>218</v>
@@ -16325,7 +16438,7 @@
         <v>1774</v>
       </c>
       <c r="J14" t="s">
-        <v>2363</v>
+        <v>2387</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>1875</v>
@@ -16363,7 +16476,7 @@
         <v>1972</v>
       </c>
       <c r="J15" t="s">
-        <v>2364</v>
+        <v>2388</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1974</v>
@@ -16401,7 +16514,7 @@
         <v>1383</v>
       </c>
       <c r="J16" t="s">
-        <v>2365</v>
+        <v>2389</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>1987</v>
@@ -16527,7 +16640,7 @@
         <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>264</v>
@@ -16565,7 +16678,7 @@
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>2366</v>
+        <v>2390</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>275</v>
@@ -16600,7 +16713,7 @@
         <v>271</v>
       </c>
       <c r="J4" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>274</v>
@@ -16638,7 +16751,7 @@
         <v>244</v>
       </c>
       <c r="J5" t="s">
-        <v>2367</v>
+        <v>2391</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>273</v>
@@ -16676,7 +16789,7 @@
         <v>278</v>
       </c>
       <c r="J6" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>279</v>
@@ -16711,7 +16824,7 @@
         <v>278</v>
       </c>
       <c r="J7" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>284</v>
@@ -16746,7 +16859,7 @@
         <v>288</v>
       </c>
       <c r="J8" t="s">
-        <v>2368</v>
+        <v>2392</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>289</v>
@@ -16781,7 +16894,7 @@
         <v>293</v>
       </c>
       <c r="J9" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>294</v>
@@ -16816,7 +16929,7 @@
         <v>271</v>
       </c>
       <c r="J10" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>297</v>
@@ -16851,7 +16964,7 @@
         <v>271</v>
       </c>
       <c r="J11" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>300</v>
@@ -16886,7 +16999,7 @@
         <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>303</v>
@@ -16924,7 +17037,7 @@
         <v>1304</v>
       </c>
       <c r="J13" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>310</v>
@@ -16959,7 +17072,7 @@
         <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>2369</v>
+        <v>2393</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>313</v>
@@ -16997,7 +17110,7 @@
         <v>318</v>
       </c>
       <c r="J15" t="s">
-        <v>2370</v>
+        <v>2394</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>319</v>
@@ -17032,7 +17145,7 @@
         <v>322</v>
       </c>
       <c r="J16" t="s">
-        <v>2371</v>
+        <v>2395</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>323</v>
@@ -17055,7 +17168,7 @@
         <v>359</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>24</v>
@@ -17064,13 +17177,13 @@
         <v>324</v>
       </c>
       <c r="J17" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>325</v>
       </c>
       <c r="L17" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -17102,7 +17215,7 @@
         <v>244</v>
       </c>
       <c r="J18" t="s">
-        <v>2372</v>
+        <v>2396</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>329</v>
@@ -17137,7 +17250,7 @@
         <v>324</v>
       </c>
       <c r="J19" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>333</v>
@@ -17172,7 +17285,7 @@
         <v>345</v>
       </c>
       <c r="J20" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>337</v>
@@ -17207,7 +17320,7 @@
         <v>324</v>
       </c>
       <c r="J21" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>341</v>
@@ -17242,13 +17355,13 @@
         <v>345</v>
       </c>
       <c r="J22" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>346</v>
       </c>
       <c r="L22" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -17277,13 +17390,13 @@
         <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>349</v>
       </c>
       <c r="L23" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -17312,7 +17425,7 @@
         <v>353</v>
       </c>
       <c r="J24" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>354</v>
@@ -17347,7 +17460,7 @@
         <v>324</v>
       </c>
       <c r="J25" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>358</v>
@@ -17382,7 +17495,7 @@
         <v>322</v>
       </c>
       <c r="J26" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>362</v>
@@ -17417,13 +17530,13 @@
         <v>367</v>
       </c>
       <c r="J27" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>368</v>
       </c>
       <c r="L27" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -17452,7 +17565,7 @@
         <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>371</v>
@@ -17487,7 +17600,7 @@
         <v>367</v>
       </c>
       <c r="J29" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>372</v>
@@ -17522,7 +17635,7 @@
         <v>324</v>
       </c>
       <c r="J30" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>377</v>
@@ -17557,13 +17670,13 @@
         <v>353</v>
       </c>
       <c r="J31" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>381</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -17592,13 +17705,13 @@
         <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
       </c>
       <c r="L32" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -17627,7 +17740,7 @@
         <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>391</v>
@@ -17662,13 +17775,13 @@
         <v>395</v>
       </c>
       <c r="J34" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>396</v>
       </c>
       <c r="L34" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -17697,13 +17810,13 @@
         <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>400</v>
       </c>
       <c r="L35" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -17732,13 +17845,13 @@
         <v>404</v>
       </c>
       <c r="J36" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>405</v>
       </c>
       <c r="L36" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -17767,7 +17880,7 @@
         <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>409</v>
@@ -17802,13 +17915,13 @@
         <v>413</v>
       </c>
       <c r="J38" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>414</v>
       </c>
       <c r="L38" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -17837,7 +17950,7 @@
         <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>2373</v>
+        <v>2397</v>
       </c>
       <c r="K39" t="s">
         <v>678</v>
@@ -17875,7 +17988,7 @@
         <v>266</v>
       </c>
       <c r="J40" t="s">
-        <v>2374</v>
+        <v>2398</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>681</v>
@@ -17913,7 +18026,7 @@
         <v>1186</v>
       </c>
       <c r="J41" t="s">
-        <v>2375</v>
+        <v>2399</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>1119</v>
@@ -17948,7 +18061,7 @@
         <v>244</v>
       </c>
       <c r="J42" t="s">
-        <v>2376</v>
+        <v>2400</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>1086</v>
@@ -17983,7 +18096,7 @@
         <v>209</v>
       </c>
       <c r="J43" t="s">
-        <v>2377</v>
+        <v>2401</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>1475</v>
@@ -18018,7 +18131,7 @@
         <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>2378</v>
+        <v>2402</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>1652</v>
@@ -18056,7 +18169,7 @@
         <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>2379</v>
+        <v>2403</v>
       </c>
       <c r="K45" t="s">
         <v>1693</v>
@@ -18094,7 +18207,7 @@
         <v>244</v>
       </c>
       <c r="J46" t="s">
-        <v>2380</v>
+        <v>2404</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>218</v>
@@ -18132,7 +18245,7 @@
         <v>209</v>
       </c>
       <c r="J47" t="s">
-        <v>2381</v>
+        <v>2405</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>1875</v>
@@ -18170,7 +18283,7 @@
         <v>1383</v>
       </c>
       <c r="J48" t="s">
-        <v>2382</v>
+        <v>2406</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>1885</v>
@@ -18273,7 +18386,7 @@
         <v>438</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2383</v>
+        <v>2407</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>437</v>
@@ -18309,7 +18422,7 @@
         <v>440</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>2384</v>
+        <v>2408</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>439</v>
@@ -18345,7 +18458,7 @@
         <v>417</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>418</v>
@@ -18381,7 +18494,7 @@
         <v>420</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>421</v>
@@ -18417,7 +18530,7 @@
         <v>423</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>424</v>
@@ -18457,7 +18570,7 @@
         <v>423</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>426</v>
@@ -18493,7 +18606,7 @@
         <v>428</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>430</v>
@@ -18529,7 +18642,7 @@
         <v>428</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>434</v>
@@ -18565,7 +18678,7 @@
         <v>445</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K10" t="s">
         <v>447</v>
@@ -18588,7 +18701,7 @@
         <v>481</v>
       </c>
       <c r="E11" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>450</v>
@@ -18601,7 +18714,7 @@
         <v>448</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K11" t="s">
         <v>449</v>
@@ -18637,7 +18750,7 @@
         <v>423</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K12" t="s">
         <v>452</v>
@@ -18673,13 +18786,13 @@
         <v>457</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K13" t="s">
         <v>458</v>
       </c>
       <c r="L13" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -18709,13 +18822,13 @@
         <v>423</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K14" t="s">
         <v>461</v>
       </c>
       <c r="L14" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -18742,13 +18855,13 @@
         <v>446</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K15" t="s">
         <v>464</v>
       </c>
       <c r="L15" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -18775,13 +18888,13 @@
         <v>453</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K16" t="s">
         <v>467</v>
       </c>
       <c r="L16" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -18811,13 +18924,13 @@
         <v>438</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="L17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -18847,13 +18960,13 @@
         <v>472</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="K18" t="s">
         <v>473</v>
       </c>
       <c r="L18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -18885,7 +18998,7 @@
         <v>717</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2385</v>
+        <v>2409</v>
       </c>
       <c r="K19" t="s">
         <v>716</v>
@@ -18923,7 +19036,7 @@
         <v>423</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>2386</v>
+        <v>2410</v>
       </c>
       <c r="K20" t="s">
         <v>678</v>
@@ -18961,7 +19074,7 @@
         <v>1257</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2387</v>
+        <v>2411</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>114</v>
@@ -18997,7 +19110,7 @@
         <v>1474</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>2388</v>
+        <v>2412</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1475</v>
@@ -19033,7 +19146,7 @@
         <v>440</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>2389</v>
+        <v>2413</v>
       </c>
       <c r="K23" t="s">
         <v>1520</v>
@@ -19193,8 +19306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED1DB0C-0CF3-43D6-9188-8D0D89B0D236}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19280,7 +19393,7 @@
         <v>293</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2390</v>
+        <v>2414</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>218</v>
@@ -19316,7 +19429,7 @@
         <v>541</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>2391</v>
+        <v>2415</v>
       </c>
       <c r="K3" t="s">
         <v>218</v>
@@ -19354,13 +19467,13 @@
         <v>267</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2392</v>
+        <v>2416</v>
       </c>
       <c r="K4" t="s">
         <v>643</v>
       </c>
       <c r="L4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -19390,7 +19503,7 @@
         <v>693</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2393</v>
+        <v>2417</v>
       </c>
       <c r="K5" t="s">
         <v>678</v>
@@ -19426,7 +19539,7 @@
         <v>322</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>2394</v>
+        <v>2418</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>1119</v>
@@ -19464,7 +19577,7 @@
         <v>293</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>2395</v>
+        <v>2419</v>
       </c>
       <c r="K7" t="s">
         <v>114</v>
@@ -19500,7 +19613,7 @@
         <v>266</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>2396</v>
+        <v>2420</v>
       </c>
       <c r="K8" t="s">
         <v>218</v>
@@ -19536,7 +19649,7 @@
         <v>266</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>2397</v>
+        <v>2421</v>
       </c>
       <c r="K9" t="s">
         <v>694</v>
@@ -19572,7 +19685,7 @@
         <v>554</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>2398</v>
+        <v>2422</v>
       </c>
       <c r="K10" t="s">
         <v>553</v>
@@ -19610,7 +19723,7 @@
         <v>554</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>2399</v>
+        <v>2423</v>
       </c>
       <c r="K11" t="s">
         <v>557</v>
@@ -19648,7 +19761,7 @@
         <v>266</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>2400</v>
+        <v>2424</v>
       </c>
       <c r="K12" t="s">
         <v>114</v>
@@ -19684,7 +19797,7 @@
         <v>676</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2401</v>
+        <v>2425</v>
       </c>
       <c r="K13" t="s">
         <v>678</v>
@@ -19720,7 +19833,7 @@
         <v>322</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>2402</v>
+        <v>2426</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>681</v>
@@ -19758,7 +19871,7 @@
         <v>690</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2403</v>
+        <v>2427</v>
       </c>
       <c r="K15" t="s">
         <v>678</v>
@@ -19796,7 +19909,7 @@
         <v>712</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>2404</v>
+        <v>2428</v>
       </c>
       <c r="K16" t="s">
         <v>678</v>
@@ -19834,7 +19947,7 @@
         <v>244</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2405</v>
+        <v>2429</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>681</v>
@@ -19872,7 +19985,7 @@
         <v>293</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>2406</v>
+        <v>2430</v>
       </c>
       <c r="K18" t="s">
         <v>114</v>
@@ -19910,7 +20023,7 @@
         <v>324</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2407</v>
+        <v>2431</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>1082</v>
@@ -19946,7 +20059,7 @@
         <v>324</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>2408</v>
+        <v>2432</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>1086</v>
@@ -19984,7 +20097,7 @@
         <v>1102</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2409</v>
+        <v>2433</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>1086</v>
@@ -20020,7 +20133,7 @@
         <v>1117</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>2410</v>
+        <v>2434</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1086</v>
@@ -20058,7 +20171,7 @@
         <v>676</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>2411</v>
+        <v>2435</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>1086</v>
@@ -20094,7 +20207,7 @@
         <v>324</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>2412</v>
+        <v>2436</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>1119</v>
@@ -20132,7 +20245,7 @@
         <v>1213</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>2413</v>
+        <v>2437</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>1086</v>
@@ -20170,7 +20283,7 @@
         <v>266</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>2414</v>
+        <v>2438</v>
       </c>
       <c r="K26" t="s">
         <v>1281</v>
@@ -20208,7 +20321,7 @@
         <v>278</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>2415</v>
+        <v>2439</v>
       </c>
       <c r="K27" t="s">
         <v>1475</v>
@@ -20246,7 +20359,7 @@
         <v>324</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>2416</v>
+        <v>2440</v>
       </c>
       <c r="K28" t="s">
         <v>1475</v>
@@ -20282,7 +20395,7 @@
         <v>563</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>2417</v>
+        <v>2441</v>
       </c>
       <c r="K29" t="s">
         <v>1520</v>
@@ -20320,7 +20433,7 @@
         <v>676</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>2418</v>
+        <v>2442</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>1652</v>
@@ -20356,7 +20469,7 @@
         <v>271</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>2419</v>
+        <v>2443</v>
       </c>
       <c r="K31" t="s">
         <v>1693</v>
@@ -20394,7 +20507,7 @@
         <v>271</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>2420</v>
+        <v>2444</v>
       </c>
       <c r="K32" t="s">
         <v>1693</v>
@@ -20403,27 +20516,61 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>2445</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
@@ -20474,7 +20621,7 @@
         <v>1889</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2061</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -20488,7 +20635,7 @@
         <v>1888</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2062</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -20502,7 +20649,7 @@
         <v>1890</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2063</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -20516,7 +20663,7 @@
         <v>1891</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2064</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -20530,7 +20677,7 @@
         <v>1892</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2065</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -20544,7 +20691,7 @@
         <v>1893</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2066</v>
+        <v>2085</v>
       </c>
     </row>
   </sheetData>
@@ -20644,7 +20791,7 @@
         <v>604</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2421</v>
+        <v>2446</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>605</v>
@@ -20682,13 +20829,13 @@
         <v>604</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>2422</v>
+        <v>2447</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>643</v>
       </c>
       <c r="L3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -20720,13 +20867,13 @@
         <v>604</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2423</v>
+        <v>2448</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>645</v>
       </c>
       <c r="L4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -20758,7 +20905,7 @@
         <v>604</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2424</v>
+        <v>2449</v>
       </c>
       <c r="K5" t="s">
         <v>609</v>
@@ -20796,13 +20943,13 @@
         <v>604</v>
       </c>
       <c r="J6" t="s">
-        <v>2075</v>
+        <v>2094</v>
       </c>
       <c r="K6" t="s">
         <v>624</v>
       </c>
       <c r="L6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -20834,13 +20981,13 @@
         <v>604</v>
       </c>
       <c r="J7" t="s">
-        <v>2075</v>
+        <v>2094</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>627</v>
       </c>
       <c r="L7" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -20872,7 +21019,7 @@
         <v>604</v>
       </c>
       <c r="J8" t="s">
-        <v>2075</v>
+        <v>2094</v>
       </c>
       <c r="K8" t="s">
         <v>632</v>
@@ -20910,7 +21057,7 @@
         <v>604</v>
       </c>
       <c r="J9" t="s">
-        <v>2425</v>
+        <v>2450</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>635</v>
@@ -20948,7 +21095,7 @@
         <v>604</v>
       </c>
       <c r="J10" t="s">
-        <v>2426</v>
+        <v>2451</v>
       </c>
       <c r="K10" t="s">
         <v>776</v>
@@ -21496,13 +21643,13 @@
         <v>615</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2427</v>
+        <v>2452</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>617</v>
       </c>
       <c r="L2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -21534,7 +21681,7 @@
         <v>612</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>2428</v>
+        <v>2453</v>
       </c>
       <c r="K3" t="s">
         <v>639</v>
@@ -21572,7 +21719,7 @@
         <v>734</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2429</v>
+        <v>2454</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>681</v>
@@ -21610,7 +21757,7 @@
         <v>736</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2430</v>
+        <v>2455</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>681</v>
@@ -21648,7 +21795,7 @@
         <v>738</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>2431</v>
+        <v>2456</v>
       </c>
       <c r="K6" t="s">
         <v>678</v>
@@ -21686,7 +21833,7 @@
         <v>736</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>2432</v>
+        <v>2457</v>
       </c>
       <c r="K7" t="s">
         <v>678</v>
@@ -21722,7 +21869,7 @@
         <v>563</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>2433</v>
+        <v>2458</v>
       </c>
       <c r="K8" t="s">
         <v>678</v>
@@ -21760,7 +21907,7 @@
         <v>563</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>2434</v>
+        <v>2459</v>
       </c>
       <c r="K9" t="s">
         <v>678</v>
@@ -21796,7 +21943,7 @@
         <v>563</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>2435</v>
+        <v>2460</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>114</v>
@@ -21832,7 +21979,7 @@
         <v>563</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>2436</v>
+        <v>2461</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>114</v>
@@ -21870,7 +22017,7 @@
         <v>1128</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>2437</v>
+        <v>2462</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>1119</v>
@@ -21905,7 +22052,7 @@
         <v>1128</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2438</v>
+        <v>2463</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>1086</v>
@@ -21940,7 +22087,7 @@
         <v>1135</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>2439</v>
+        <v>2464</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>1086</v>
@@ -21975,7 +22122,7 @@
         <v>563</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2440</v>
+        <v>2465</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>1086</v>
@@ -22013,7 +22160,7 @@
         <v>1142</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>2441</v>
+        <v>2466</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>1086</v>
@@ -22051,7 +22198,7 @@
         <v>1278</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2442</v>
+        <v>2467</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>114</v>
@@ -22089,7 +22236,7 @@
         <v>1299</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>2443</v>
+        <v>2468</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>1294</v>
@@ -22125,7 +22272,7 @@
         <v>1340</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2444</v>
+        <v>2469</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>1294</v>
@@ -22157,7 +22304,7 @@
         <v>1340</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>2445</v>
+        <v>2470</v>
       </c>
       <c r="K20" t="s">
         <v>1475</v>
@@ -22193,7 +22340,7 @@
         <v>734</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2446</v>
+        <v>2471</v>
       </c>
       <c r="K21" t="s">
         <v>1693</v>
@@ -22316,7 +22463,7 @@
         <v>1635</v>
       </c>
       <c r="L2" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>1628</v>
@@ -22360,7 +22507,7 @@
         <v>1726</v>
       </c>
       <c r="L3" t="s">
-        <v>2448</v>
+        <v>2473</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>1041</v>
@@ -22401,7 +22548,7 @@
         <v>1723</v>
       </c>
       <c r="L4" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>1628</v>
@@ -22445,7 +22592,7 @@
         <v>1731</v>
       </c>
       <c r="L5" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>1628</v>
@@ -22492,7 +22639,7 @@
         <v>1735</v>
       </c>
       <c r="L6" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>1628</v>
@@ -22539,7 +22686,7 @@
         <v>1744</v>
       </c>
       <c r="L7" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>1628</v>
@@ -22719,7 +22866,7 @@
         <v>1735</v>
       </c>
       <c r="L11" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>1628</v>
@@ -22766,7 +22913,7 @@
         <v>1899</v>
       </c>
       <c r="L12" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>1628</v>
@@ -22810,7 +22957,7 @@
         <v>1904</v>
       </c>
       <c r="L13" t="s">
-        <v>2447</v>
+        <v>2472</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>1628</v>
@@ -22839,31 +22986,31 @@
         <v>1626</v>
       </c>
       <c r="F14" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G14" t="s">
         <v>2050</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2474</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>2056</v>
+      </c>
+      <c r="N14" t="s">
         <v>2051</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2053</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>2054</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>2055</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>2056</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2449</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>2057</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2052</v>
       </c>
     </row>
   </sheetData>
@@ -22877,7 +23024,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22918,10 +23065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5551A84-3C39-4D9D-A279-933A50692AE3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22940,10 +23087,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
@@ -22957,7 +23112,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23010,7 +23165,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -23402,7 +23557,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2067</v>
+        <v>2086</v>
       </c>
       <c r="C2" t="s">
         <v>256</v>
@@ -23413,7 +23568,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>2068</v>
+        <v>2087</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
@@ -23424,7 +23579,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>2069</v>
+        <v>2088</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>
@@ -23435,7 +23590,7 @@
         <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>2070</v>
+        <v>2089</v>
       </c>
       <c r="C5" t="s">
         <v>256</v>
@@ -23446,7 +23601,7 @@
         <v>1153</v>
       </c>
       <c r="B6" t="s">
-        <v>2071</v>
+        <v>2090</v>
       </c>
       <c r="C6" t="s">
         <v>256</v>
@@ -23468,7 +23623,7 @@
         <v>1152</v>
       </c>
       <c r="B8" t="s">
-        <v>2072</v>
+        <v>2091</v>
       </c>
       <c r="C8" t="s">
         <v>256</v>
@@ -23479,7 +23634,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>2073</v>
+        <v>2092</v>
       </c>
       <c r="C9" t="s">
         <v>256</v>
@@ -23490,7 +23645,7 @@
         <v>1150</v>
       </c>
       <c r="B10" t="s">
-        <v>2074</v>
+        <v>2093</v>
       </c>
       <c r="C10" t="s">
         <v>256</v>
@@ -23501,7 +23656,7 @@
         <v>1151</v>
       </c>
       <c r="B11" t="s">
-        <v>2075</v>
+        <v>2094</v>
       </c>
       <c r="C11" t="s">
         <v>256</v>
@@ -23512,7 +23667,7 @@
         <v>1149</v>
       </c>
       <c r="B12" t="s">
-        <v>2076</v>
+        <v>2095</v>
       </c>
       <c r="C12" t="s">
         <v>256</v>
@@ -23523,7 +23678,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>2077</v>
+        <v>2096</v>
       </c>
       <c r="C13" t="s">
         <v>256</v>
@@ -23534,7 +23689,7 @@
         <v>814</v>
       </c>
       <c r="B14" t="s">
-        <v>2078</v>
+        <v>2097</v>
       </c>
       <c r="C14" t="s">
         <v>256</v>
@@ -23545,7 +23700,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>2079</v>
+        <v>2098</v>
       </c>
       <c r="C15" t="s">
         <v>256</v>
@@ -23556,7 +23711,7 @@
         <v>1895</v>
       </c>
       <c r="B16" t="s">
-        <v>2080</v>
+        <v>2099</v>
       </c>
       <c r="C16" t="s">
         <v>256</v>
@@ -23572,8 +23727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7220591-6B61-40EA-9175-255719787458}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23600,7 +23755,7 @@
         <v>1089</v>
       </c>
       <c r="B2" t="s">
-        <v>2081</v>
+        <v>2100</v>
       </c>
       <c r="C2" t="s">
         <v>256</v>
@@ -23611,7 +23766,7 @@
         <v>1090</v>
       </c>
       <c r="B3" t="s">
-        <v>2082</v>
+        <v>2101</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
@@ -23622,7 +23777,7 @@
         <v>1451</v>
       </c>
       <c r="B4" t="s">
-        <v>2083</v>
+        <v>2102</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>
@@ -23633,7 +23788,7 @@
         <v>1098</v>
       </c>
       <c r="B5" t="s">
-        <v>2084</v>
+        <v>2103</v>
       </c>
       <c r="C5" t="s">
         <v>256</v>
@@ -23644,7 +23799,7 @@
         <v>1103</v>
       </c>
       <c r="B6" t="s">
-        <v>2085</v>
+        <v>2104</v>
       </c>
       <c r="C6" t="s">
         <v>256</v>
@@ -23655,7 +23810,7 @@
         <v>1157</v>
       </c>
       <c r="B7" t="s">
-        <v>2086</v>
+        <v>2105</v>
       </c>
       <c r="C7" t="s">
         <v>256</v>
@@ -23666,7 +23821,7 @@
         <v>1154</v>
       </c>
       <c r="B8" t="s">
-        <v>2087</v>
+        <v>2106</v>
       </c>
       <c r="C8" t="s">
         <v>256</v>
@@ -23677,7 +23832,7 @@
         <v>793</v>
       </c>
       <c r="B9" t="s">
-        <v>2088</v>
+        <v>2107</v>
       </c>
       <c r="C9" t="s">
         <v>256</v>
@@ -23688,7 +23843,7 @@
         <v>791</v>
       </c>
       <c r="B10" t="s">
-        <v>2089</v>
+        <v>2108</v>
       </c>
       <c r="C10" t="s">
         <v>256</v>
@@ -23699,7 +23854,7 @@
         <v>1649</v>
       </c>
       <c r="B11" t="s">
-        <v>2090</v>
+        <v>2109</v>
       </c>
       <c r="C11" t="s">
         <v>256</v>
@@ -23710,7 +23865,7 @@
         <v>1647</v>
       </c>
       <c r="B12" t="s">
-        <v>2091</v>
+        <v>2110</v>
       </c>
       <c r="C12" t="s">
         <v>256</v>
@@ -23721,7 +23876,7 @@
         <v>792</v>
       </c>
       <c r="B13" t="s">
-        <v>2092</v>
+        <v>2111</v>
       </c>
       <c r="C13" t="s">
         <v>256</v>
@@ -23732,7 +23887,7 @@
         <v>812</v>
       </c>
       <c r="B14" t="s">
-        <v>2093</v>
+        <v>2112</v>
       </c>
       <c r="C14" t="s">
         <v>256</v>
@@ -23743,7 +23898,7 @@
         <v>1606</v>
       </c>
       <c r="B15" t="s">
-        <v>2094</v>
+        <v>2113</v>
       </c>
       <c r="C15" t="s">
         <v>256</v>
@@ -23754,7 +23909,7 @@
         <v>1607</v>
       </c>
       <c r="B16" t="s">
-        <v>2095</v>
+        <v>2114</v>
       </c>
       <c r="C16" t="s">
         <v>256</v>
@@ -23765,7 +23920,7 @@
         <v>794</v>
       </c>
       <c r="B17" t="s">
-        <v>2096</v>
+        <v>2115</v>
       </c>
       <c r="C17" t="s">
         <v>256</v>
@@ -23776,7 +23931,7 @@
         <v>795</v>
       </c>
       <c r="B18" t="s">
-        <v>2097</v>
+        <v>2116</v>
       </c>
       <c r="C18" t="s">
         <v>256</v>
@@ -23787,7 +23942,7 @@
         <v>819</v>
       </c>
       <c r="B19" t="s">
-        <v>2098</v>
+        <v>2117</v>
       </c>
       <c r="C19" t="s">
         <v>256</v>
@@ -23798,7 +23953,7 @@
         <v>1378</v>
       </c>
       <c r="B20" t="s">
-        <v>2099</v>
+        <v>2118</v>
       </c>
       <c r="C20" t="s">
         <v>256</v>
@@ -23809,7 +23964,7 @@
         <v>1388</v>
       </c>
       <c r="B21" t="s">
-        <v>2100</v>
+        <v>2119</v>
       </c>
       <c r="C21" t="s">
         <v>256</v>
@@ -23820,7 +23975,7 @@
         <v>1535</v>
       </c>
       <c r="B22" t="s">
-        <v>2101</v>
+        <v>2120</v>
       </c>
       <c r="C22" t="s">
         <v>256</v>
@@ -23831,7 +23986,7 @@
         <v>1324</v>
       </c>
       <c r="B23" t="s">
-        <v>2102</v>
+        <v>2121</v>
       </c>
       <c r="C23" t="s">
         <v>256</v>
@@ -23842,7 +23997,7 @@
         <v>1399</v>
       </c>
       <c r="B24" t="s">
-        <v>2103</v>
+        <v>2122</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -23853,7 +24008,7 @@
         <v>789</v>
       </c>
       <c r="B25" t="s">
-        <v>2104</v>
+        <v>2123</v>
       </c>
       <c r="C25" t="s">
         <v>256</v>
@@ -23864,7 +24019,7 @@
         <v>790</v>
       </c>
       <c r="B26" t="s">
-        <v>2105</v>
+        <v>2124</v>
       </c>
       <c r="C26" t="s">
         <v>256</v>
@@ -23877,10 +24032,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9782ABEF-ADC0-4B58-AD02-3AEBD9E00C61}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="F81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23960,7 +24115,7 @@
         <v>756</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2104</v>
+        <v>2123</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>798</v>
@@ -23992,7 +24147,7 @@
         <v>756</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>2105</v>
+        <v>2124</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>801</v>
@@ -24027,7 +24182,7 @@
         <v>805</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>2089</v>
+        <v>2108</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>114</v>
@@ -24065,7 +24220,7 @@
         <v>612</v>
       </c>
       <c r="J5" t="s">
-        <v>2106</v>
+        <v>2125</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>114</v>
@@ -24100,7 +24255,7 @@
         <v>1383</v>
       </c>
       <c r="J6" t="s">
-        <v>2107</v>
+        <v>2126</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>1167</v>
@@ -24138,7 +24293,7 @@
         <v>1438</v>
       </c>
       <c r="J7" t="s">
-        <v>2108</v>
+        <v>2127</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>1294</v>
@@ -24176,7 +24331,7 @@
         <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>2109</v>
+        <v>2128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>1475</v>
@@ -24214,7 +24369,7 @@
         <v>563</v>
       </c>
       <c r="J9" t="s">
-        <v>2110</v>
+        <v>2129</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>1520</v>
@@ -24275,16 +24430,16 @@
         <v>1171</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>2059</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>2058</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>2060</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>1172</v>
@@ -24508,7 +24663,7 @@
         <v>563</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2111</v>
+        <v>2130</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>809</v>
@@ -24546,7 +24701,7 @@
         <v>805</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>2112</v>
+        <v>2131</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>1784</v>
@@ -24578,7 +24733,7 @@
         <v>612</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2113</v>
+        <v>2132</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>114</v>
@@ -24613,7 +24768,7 @@
         <v>440</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>2114</v>
+        <v>2133</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>1223</v>
@@ -24651,7 +24806,7 @@
         <v>440</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2115</v>
+        <v>2134</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>275</v>
@@ -24689,7 +24844,7 @@
         <v>736</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>2116</v>
+        <v>2135</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1422</v>
@@ -24727,7 +24882,7 @@
         <v>1438</v>
       </c>
       <c r="J23" t="s">
-        <v>2117</v>
+        <v>2136</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>1294</v>
@@ -24762,7 +24917,7 @@
         <v>266</v>
       </c>
       <c r="J24" t="s">
-        <v>2118</v>
+        <v>2137</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>1475</v>
@@ -24800,7 +24955,7 @@
         <v>1602</v>
       </c>
       <c r="J25" t="s">
-        <v>2119</v>
+        <v>2138</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>1520</v>
@@ -24838,7 +24993,7 @@
         <v>1602</v>
       </c>
       <c r="J26" t="s">
-        <v>2120</v>
+        <v>2139</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1831</v>
@@ -24876,7 +25031,7 @@
         <v>1094</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>2121</v>
+        <v>2140</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>1086</v>
@@ -24914,7 +25069,7 @@
         <v>712</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>2122</v>
+        <v>2141</v>
       </c>
       <c r="K28" t="s">
         <v>678</v>
@@ -24950,7 +25105,7 @@
         <v>1102</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>1086</v>
@@ -24985,7 +25140,7 @@
         <v>1383</v>
       </c>
       <c r="J30" t="s">
-        <v>2124</v>
+        <v>2143</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>1167</v>
@@ -25023,7 +25178,7 @@
         <v>1299</v>
       </c>
       <c r="J31" t="s">
-        <v>2125</v>
+        <v>2144</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>1294</v>
@@ -25058,7 +25213,7 @@
         <v>563</v>
       </c>
       <c r="J32" t="s">
-        <v>2126</v>
+        <v>2145</v>
       </c>
       <c r="K32" t="s">
         <v>218</v>
@@ -25094,7 +25249,7 @@
         <v>1878</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>2127</v>
+        <v>2146</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>1875</v>
@@ -25132,7 +25287,7 @@
         <v>1094</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>2128</v>
+        <v>2147</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>1096</v>
@@ -25170,7 +25325,7 @@
         <v>712</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>2129</v>
+        <v>2148</v>
       </c>
       <c r="K35" t="s">
         <v>678</v>
@@ -25206,7 +25361,7 @@
         <v>1102</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>2130</v>
+        <v>2149</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>1086</v>
@@ -25244,7 +25399,7 @@
         <v>1299</v>
       </c>
       <c r="J37" t="s">
-        <v>2131</v>
+        <v>2150</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>1294</v>
@@ -25279,7 +25434,7 @@
         <v>563</v>
       </c>
       <c r="J38" t="s">
-        <v>2132</v>
+        <v>2151</v>
       </c>
       <c r="K38" t="s">
         <v>218</v>
@@ -25315,7 +25470,7 @@
         <v>1878</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>2133</v>
+        <v>2152</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>1875</v>
@@ -25353,7 +25508,7 @@
         <v>1094</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>2134</v>
+        <v>2153</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>1097</v>
@@ -25391,7 +25546,7 @@
         <v>712</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>2135</v>
+        <v>2154</v>
       </c>
       <c r="K41" t="s">
         <v>678</v>
@@ -25427,7 +25582,7 @@
         <v>1102</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>2136</v>
+        <v>2155</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>1086</v>
@@ -25465,7 +25620,7 @@
         <v>1299</v>
       </c>
       <c r="J43" t="s">
-        <v>2137</v>
+        <v>2156</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>1294</v>
@@ -25500,7 +25655,7 @@
         <v>563</v>
       </c>
       <c r="J44" t="s">
-        <v>2138</v>
+        <v>2157</v>
       </c>
       <c r="K44" t="s">
         <v>218</v>
@@ -25536,7 +25691,7 @@
         <v>1878</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>2139</v>
+        <v>2158</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>1875</v>
@@ -25574,7 +25729,7 @@
         <v>1102</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>2140</v>
+        <v>2159</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>1086</v>
@@ -25610,7 +25765,7 @@
         <v>266</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>2141</v>
+        <v>2160</v>
       </c>
       <c r="K47" t="s">
         <v>218</v>
@@ -25646,7 +25801,7 @@
         <v>266</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>2142</v>
+        <v>2161</v>
       </c>
       <c r="K48" t="s">
         <v>694</v>
@@ -25684,7 +25839,7 @@
         <v>266</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>2143</v>
+        <v>2162</v>
       </c>
       <c r="K49" t="s">
         <v>114</v>
@@ -25720,7 +25875,7 @@
         <v>324</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>2144</v>
+        <v>2163</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>1119</v>
@@ -25758,7 +25913,7 @@
         <v>266</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>2145</v>
+        <v>2164</v>
       </c>
       <c r="K51" t="s">
         <v>1281</v>
@@ -25796,7 +25951,7 @@
         <v>413</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>2146</v>
+        <v>2165</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>1652</v>
@@ -25834,7 +25989,7 @@
         <v>244</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>2147</v>
+        <v>2166</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>1652</v>
@@ -25870,7 +26025,7 @@
         <v>244</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>2148</v>
+        <v>2167</v>
       </c>
       <c r="K54" t="s">
         <v>1693</v>
@@ -25908,7 +26063,7 @@
         <v>266</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>2149</v>
+        <v>2168</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>1097</v>
@@ -25943,7 +26098,7 @@
         <v>1368</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>2150</v>
+        <v>2169</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>1294</v>
@@ -25981,7 +26136,7 @@
         <v>563</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>2151</v>
+        <v>2170</v>
       </c>
       <c r="K57" t="s">
         <v>218</v>
@@ -26019,7 +26174,7 @@
         <v>1774</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>2152</v>
+        <v>2171</v>
       </c>
       <c r="K58" t="s">
         <v>218</v>
@@ -26036,144 +26191,141 @@
         <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>1158</v>
+        <v>2062</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>1159</v>
+        <v>821</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>1164</v>
+        <v>2063</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>1383</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>2153</v>
+        <v>2172</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="18">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C60" t="s">
         <v>1157</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>212</v>
+      <c r="D60" s="18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>1159</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>214</v>
+        <v>1163</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>2173</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="16" t="s">
         <v>256</v>
       </c>
       <c r="C61" t="s">
         <v>1157</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1169</v>
+        <v>211</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1338</v>
+        <v>212</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>1166</v>
+        <v>863</v>
       </c>
       <c r="G61" s="19"/>
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2174</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" t="s">
         <v>1157</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1175</v>
+      <c r="D62" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1338</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H62" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>2156</v>
+        <v>2175</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1097</v>
+        <v>1167</v>
       </c>
       <c r="L62" t="s">
-        <v>1085</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -26187,104 +26339,107 @@
         <v>1157</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1482</v>
+        <v>1174</v>
       </c>
       <c r="E63" t="s">
-        <v>1487</v>
+        <v>1175</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>1483</v>
+        <v>1176</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>1484</v>
+        <v>1177</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>1485</v>
+      <c r="I63" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2157</v>
+        <v>2176</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>1475</v>
+        <v>1097</v>
       </c>
       <c r="L63" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="18">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="18" t="s">
         <v>256</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>1157</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>1687</v>
+      <c r="D64" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1487</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>1689</v>
+        <v>1483</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>244</v>
+        <v>1484</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>1485</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2177</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>63</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>1336</v>
+      <c r="B65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1686</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1337</v>
+        <v>1687</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J65" t="s">
-        <v>2159</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1168</v>
+        <v>1689</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -26294,35 +26449,32 @@
       <c r="B66" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" t="s">
         <v>1324</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>1331</v>
+      <c r="I66" s="18" t="s">
+        <v>1325</v>
       </c>
       <c r="J66" t="s">
-        <v>2160</v>
+        <v>2179</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>1294</v>
+        <v>1167</v>
       </c>
       <c r="L66" t="s">
-        <v>1241</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -26336,31 +26488,31 @@
         <v>1324</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1409</v>
+        <v>1327</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1410</v>
+        <v>1328</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>1411</v>
+        <v>1329</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>1412</v>
+        <v>1330</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="J67" t="s">
-        <v>2161</v>
+        <v>2180</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>1863</v>
+        <v>1294</v>
       </c>
       <c r="L67" t="s">
-        <v>254</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -26374,16 +26526,16 @@
         <v>1324</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1864</v>
+        <v>1409</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1865</v>
+        <v>1410</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>1866</v>
+        <v>1411</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>1867</v>
+        <v>1412</v>
       </c>
       <c r="H68" s="18" t="s">
         <v>24</v>
@@ -26392,7 +26544,7 @@
         <v>1325</v>
       </c>
       <c r="J68" t="s">
-        <v>2162</v>
+        <v>2181</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>1863</v>
@@ -26408,35 +26560,35 @@
       <c r="B69" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C69" t="s">
-        <v>812</v>
+      <c r="C69" s="18" t="s">
+        <v>1324</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>821</v>
+        <v>1864</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1865</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>1370</v>
+        <v>1866</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>1371</v>
+        <v>1867</v>
       </c>
       <c r="H69" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="18" t="s">
-        <v>322</v>
+      <c r="I69" s="1" t="s">
+        <v>1325</v>
       </c>
       <c r="J69" t="s">
-        <v>2163</v>
+        <v>2182</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>1372</v>
+        <v>1863</v>
+      </c>
+      <c r="L69" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -26450,31 +26602,31 @@
         <v>812</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>1436</v>
+        <v>1369</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>821</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>1435</v>
+        <v>1370</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>1434</v>
+        <v>1371</v>
       </c>
       <c r="H70" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>1438</v>
+        <v>322</v>
       </c>
       <c r="J70" t="s">
-        <v>2164</v>
+        <v>2183</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1241</v>
+        <v>114</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -26488,31 +26640,31 @@
         <v>812</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>1555</v>
+        <v>1433</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1436</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>1556</v>
+        <v>1435</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>1557</v>
+        <v>1434</v>
       </c>
       <c r="H71" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>563</v>
+        <v>1438</v>
       </c>
       <c r="J71" t="s">
-        <v>2165</v>
+        <v>2184</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1520</v>
+        <v>1294</v>
       </c>
       <c r="L71" t="s">
-        <v>1531</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -26523,31 +26675,34 @@
         <v>256</v>
       </c>
       <c r="C72" t="s">
-        <v>1378</v>
+        <v>812</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>1382</v>
+        <v>1559</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>1555</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>1379</v>
+        <v>1556</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>1557</v>
       </c>
       <c r="H72" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>1383</v>
+        <v>563</v>
       </c>
       <c r="J72" t="s">
-        <v>2166</v>
+        <v>2185</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>1167</v>
+        <v>1520</v>
       </c>
       <c r="L72" t="s">
-        <v>1168</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -26557,26 +26712,26 @@
       <c r="B73" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" t="s">
         <v>1378</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>1385</v>
+        <v>1381</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="H73" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J73" t="s">
-        <v>2167</v>
+        <v>2186</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>1167</v>
@@ -26596,34 +26751,31 @@
         <v>1378</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1532</v>
+        <v>1387</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1533</v>
+        <v>1385</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>1530</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>1534</v>
+        <v>1386</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="33" t="s">
-        <v>563</v>
+      <c r="I74" s="18" t="s">
+        <v>1384</v>
       </c>
       <c r="J74" t="s">
-        <v>2168</v>
+        <v>2187</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1520</v>
+        <v>1167</v>
       </c>
       <c r="L74" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="18">
         <v>73</v>
       </c>
@@ -26633,70 +26785,70 @@
       <c r="C75" s="18" t="s">
         <v>1378</v>
       </c>
-      <c r="D75" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1700</v>
+      <c r="D75" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>1533</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>1701</v>
+        <v>1530</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H75" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I75" s="33" t="s">
         <v>563</v>
       </c>
       <c r="J75" t="s">
-        <v>2169</v>
-      </c>
-      <c r="K75" t="s">
-        <v>1693</v>
+        <v>2188</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>1520</v>
       </c>
       <c r="L75" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18">
         <v>74</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C76" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>1393</v>
+      <c r="C76" s="18" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1700</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>1389</v>
+        <v>1701</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>1391</v>
+        <v>1702</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>563</v>
       </c>
       <c r="J76" t="s">
-        <v>2170</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>1167</v>
+        <v>2189</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1693</v>
       </c>
       <c r="L76" t="s">
-        <v>1168</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -26707,25 +26859,28 @@
         <v>256</v>
       </c>
       <c r="C77" t="s">
-        <v>1535</v>
+        <v>1388</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>1397</v>
+        <v>1389</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>1390</v>
       </c>
       <c r="H77" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="J77" t="s">
-        <v>2171</v>
+        <v>2190</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>1167</v>
@@ -26745,22 +26900,22 @@
         <v>1535</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>1414</v>
+        <v>1396</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>1415</v>
+        <v>1397</v>
       </c>
       <c r="H78" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
       <c r="J78" t="s">
-        <v>2172</v>
+        <v>2191</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>1167</v>
@@ -26780,28 +26935,28 @@
         <v>1535</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1536</v>
+        <v>1413</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>1533</v>
+        <v>1414</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>1537</v>
+        <v>1415</v>
       </c>
       <c r="H79" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>612</v>
+        <v>1416</v>
       </c>
       <c r="J79" t="s">
-        <v>2173</v>
+        <v>2192</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>1520</v>
+        <v>1167</v>
       </c>
       <c r="L79" t="s">
-        <v>1531</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -26815,25 +26970,22 @@
         <v>1535</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H80" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>1538</v>
+        <v>612</v>
       </c>
       <c r="J80" t="s">
-        <v>2174</v>
+        <v>2193</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>1520</v>
@@ -26853,13 +27005,16 @@
         <v>1535</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>1545</v>
+        <v>1539</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>1541</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>24</v>
@@ -26868,7 +27023,7 @@
         <v>1538</v>
       </c>
       <c r="J81" t="s">
-        <v>2175</v>
+        <v>2194</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>1520</v>
@@ -26888,31 +27043,28 @@
         <v>1535</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>1859</v>
+        <v>1543</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>1544</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G82" s="19" t="s">
-        <v>1861</v>
+        <v>1545</v>
       </c>
       <c r="H82" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1862</v>
+        <v>1538</v>
       </c>
       <c r="J82" t="s">
-        <v>2176</v>
+        <v>2195</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>1863</v>
+        <v>1520</v>
       </c>
       <c r="L82" t="s">
-        <v>254</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -26922,35 +27074,35 @@
       <c r="B83" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>1399</v>
+      <c r="C83" t="s">
+        <v>1535</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>1401</v>
+        <v>1858</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1859</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>1402</v>
+        <v>1860</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>1404</v>
+        <v>1861</v>
       </c>
       <c r="H83" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>1403</v>
+        <v>1862</v>
       </c>
       <c r="J83" t="s">
-        <v>2177</v>
+        <v>2196</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1167</v>
+        <v>1863</v>
       </c>
       <c r="L83" t="s">
-        <v>1168</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -26960,35 +27112,35 @@
       <c r="B84" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C84" t="s">
-        <v>1451</v>
+      <c r="C84" s="18" t="s">
+        <v>1399</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1452</v>
+        <v>1400</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>1401</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>1453</v>
+        <v>1402</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>1454</v>
+        <v>1404</v>
       </c>
       <c r="H84" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="J84" t="s">
-        <v>2178</v>
+        <v>2197</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>1294</v>
+        <v>1167</v>
       </c>
       <c r="L84" t="s">
-        <v>1241</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -27002,31 +27154,31 @@
         <v>1451</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1828</v>
+        <v>1455</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>619</v>
+        <v>1452</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>1829</v>
+        <v>1453</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>1830</v>
+        <v>1454</v>
       </c>
       <c r="H85" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>563</v>
+        <v>1383</v>
       </c>
       <c r="J85" t="s">
-        <v>2179</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>622</v>
+        <v>2198</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -27040,28 +27192,31 @@
         <v>1451</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1923</v>
+        <v>1828</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1920</v>
+        <v>619</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>1921</v>
+        <v>1829</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>1830</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>1922</v>
+        <v>24</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>266</v>
+        <v>563</v>
       </c>
       <c r="J86" t="s">
-        <v>2180</v>
+        <v>2199</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>114</v>
+        <v>1831</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>184</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -27072,34 +27227,31 @@
         <v>256</v>
       </c>
       <c r="C87" t="s">
-        <v>1606</v>
+        <v>1451</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>1609</v>
+        <v>1923</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1920</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>1610</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>1611</v>
+        <v>1921</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>24</v>
+        <v>1922</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="J87" t="s">
-        <v>2181</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1531</v>
+        <v>2200</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -27113,31 +27265,31 @@
         <v>1606</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1617</v>
+        <v>1608</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>1609</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H88" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>563</v>
+        <v>209</v>
       </c>
       <c r="J88" t="s">
-        <v>2182</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>1616</v>
+        <v>2201</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -27148,10 +27300,10 @@
         <v>256</v>
       </c>
       <c r="C89" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>1617</v>
@@ -27169,7 +27321,7 @@
         <v>563</v>
       </c>
       <c r="J89" t="s">
-        <v>2183</v>
+        <v>2202</v>
       </c>
       <c r="K89" s="18" t="s">
         <v>1615</v>
@@ -27189,28 +27341,31 @@
         <v>1607</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1811</v>
+        <v>1618</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1815</v>
+        <v>1617</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>1812</v>
+        <v>1614</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>1613</v>
       </c>
       <c r="H90" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>278</v>
+        <v>563</v>
       </c>
       <c r="J90" t="s">
-        <v>2184</v>
+        <v>2203</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>1813</v>
+        <v>1615</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>1814</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -27224,28 +27379,28 @@
         <v>1607</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1839</v>
+        <v>1811</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>1815</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>1840</v>
+        <v>1812</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="J91" t="s">
-        <v>2185</v>
-      </c>
-      <c r="K91" t="s">
-        <v>218</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1720</v>
+        <v>2204</v>
+      </c>
+      <c r="K91" s="18" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L91" s="18" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -27256,34 +27411,31 @@
         <v>256</v>
       </c>
       <c r="C92" t="s">
-        <v>1649</v>
+        <v>1607</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>1643</v>
+        <v>1841</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1839</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>1646</v>
+        <v>1840</v>
       </c>
       <c r="H92" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="J92" t="s">
-        <v>2186</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>1520</v>
+        <v>2205</v>
+      </c>
+      <c r="K92" t="s">
+        <v>218</v>
       </c>
       <c r="L92" t="s">
-        <v>1531</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -27294,10 +27446,10 @@
         <v>256</v>
       </c>
       <c r="C93" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>1643</v>
@@ -27315,13 +27467,127 @@
         <v>278</v>
       </c>
       <c r="J93" t="s">
-        <v>2187</v>
+        <v>2206</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>1520</v>
       </c>
       <c r="L93" t="s">
         <v>1531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="18">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="18">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="18">
+        <v>94</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
